--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\Universitat\8e\Eines\Projecte\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12EE744-1C07-478D-A076-8D47DD248A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0D209A-035D-414B-8A25-0EF2AE20A420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -54,10 +54,55 @@
     <t>PIC32MK0256MCJ048</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>HG37-200-AA-00</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Current sensor (75A)</t>
+  </si>
+  <si>
+    <t>TMCS1123B2AQDVGR</t>
+  </si>
+  <si>
+    <t>csense</t>
+  </si>
+  <si>
+    <t>CAN Transciever</t>
+  </si>
+  <si>
+    <t>TCAN3413DR</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>Crystal Osc</t>
+  </si>
+  <si>
+    <t>ECS-3225SMV-080-GP-TR</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>MAX22201ATC+</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>Driver (3.5A, +csense)</t>
+  </si>
+  <si>
+    <t>Motor (588Nm, 280mA)</t>
   </si>
 </sst>
 </file>
@@ -66,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -127,6 +172,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,15 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -418,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -432,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>7.37</v>
@@ -449,19 +499,404 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{63D99C59-8484-4915-8E9F-F3C84372724B}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{57E0620F-E571-4152-82CD-ADBEBE9A8B75}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{D1648A63-80B1-4D17-A764-EF429EB3C1B3}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{B0668370-9F4C-4755-BEB5-9AE267736D4F}"/>
+    <hyperlink ref="E3" r:id="rId3" display="link" xr:uid="{D1648A63-80B1-4D17-A764-EF429EB3C1B3}"/>
+    <hyperlink ref="E4" r:id="rId4" display="link" xr:uid="{B0668370-9F4C-4755-BEB5-9AE267736D4F}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{8FA8B0CE-2234-4244-A2F8-98255F8E228A}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{82435D39-437B-4DEA-A29C-ED65F8849CFF}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{A6CFA6E3-A482-4C86-917F-7C42951D9FA2}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{96344149-E7A1-4BD3-9135-CFB2318FCDF7}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{AC9EFBAA-7FAA-4CB1-AD6C-CF655611EAB6}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{B2DFE94B-C91A-4BA0-878E-BAEA0D1C4771}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{E2B74842-4194-44D8-8F94-A1F4A5D8F322}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{1769CAFE-8039-46EA-9C3C-FC95913B1A42}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{55E68E2C-076B-449D-9988-44FE703188A1}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{04C2BE22-F9AB-41FD-AEF2-B5767640281B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ED4E95E98BE39645B2A5122B59228C1C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="befa2a1b9a24cffd904810867b8b238f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="289a0874-0c95-4191-841a-e39351615097" xmlns:ns4="2815469b-4fcf-457f-81f1-22ea46bc5ebe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b584bc5519d0f097e66008559945f81" ns3:_="" ns4:_="">
+    <xsd:import namespace="289a0874-0c95-4191-841a-e39351615097"/>
+    <xsd:import namespace="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="289a0874-0c95-4191-841a-e39351615097" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2815469b-4fcf-457f-81f1-22ea46bc5ebe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="16" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD36479-96DD-494E-99AD-96D567315D91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\Universitat\8e\Eines\Projecte\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0D209A-035D-414B-8A25-0EF2AE20A420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7C0DE-1F62-4E91-A888-40F26A94759C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="288" windowWidth="18864" windowHeight="16272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -36,18 +36,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t xml:space="preserve">TPS7B8333QDCYRQ1W </t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>uC</t>
   </si>
   <si>
-    <t>LDO 3.3V</t>
-  </si>
-  <si>
     <t>LDO</t>
   </si>
   <si>
@@ -103,6 +97,15 @@
   </si>
   <si>
     <t>Motor (588Nm, 280mA)</t>
+  </si>
+  <si>
+    <t>LDO 3.3V (3A)</t>
+  </si>
+  <si>
+    <t>LT1528CT#PBF</t>
+  </si>
+  <si>
+    <t>Digikey</t>
   </si>
 </sst>
 </file>
@@ -172,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +443,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +455,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -468,21 +467,21 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>7.37</v>
@@ -490,33 +489,33 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>26.74</v>
@@ -524,16 +523,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>2.41</v>
@@ -541,16 +540,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <v>1.92</v>
@@ -558,16 +557,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
         <v>1.56</v>
@@ -575,16 +574,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <v>5.63</v>
@@ -595,7 +594,7 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{63D99C59-8484-4915-8E9F-F3C84372724B}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{57E0620F-E571-4152-82CD-ADBEBE9A8B75}"/>
     <hyperlink ref="E3" r:id="rId3" display="link" xr:uid="{D1648A63-80B1-4D17-A764-EF429EB3C1B3}"/>
-    <hyperlink ref="E4" r:id="rId4" display="link" xr:uid="{B0668370-9F4C-4755-BEB5-9AE267736D4F}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{B0668370-9F4C-4755-BEB5-9AE267736D4F}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{8FA8B0CE-2234-4244-A2F8-98255F8E228A}"/>
     <hyperlink ref="E5" r:id="rId6" xr:uid="{82435D39-437B-4DEA-A29C-ED65F8849CFF}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{A6CFA6E3-A482-4C86-917F-7C42951D9FA2}"/>
@@ -612,12 +611,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,17 +848,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -885,18 +893,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\Universitat\8e\Eines\Projecte\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7C0DE-1F62-4E91-A888-40F26A94759C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3126E3F6-8044-4E94-9F67-B8A82C4D3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="288" windowWidth="18864" windowHeight="16272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>PIC32MK0256MCJ048</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>HG37-200-AA-00</t>
   </si>
   <si>
@@ -106,17 +103,298 @@
   </si>
   <si>
     <t>Digikey</t>
+  </si>
+  <si>
+    <t>7,37 €</t>
+  </si>
+  <si>
+    <t>5,75 €</t>
+  </si>
+  <si>
+    <t>26,74 €</t>
+  </si>
+  <si>
+    <t>2,41 €</t>
+  </si>
+  <si>
+    <t>1,92 €</t>
+  </si>
+  <si>
+    <t>1,56 €</t>
+  </si>
+  <si>
+    <t>5,63 €</t>
+  </si>
+  <si>
+    <t>Zener 12V (150MW)</t>
+  </si>
+  <si>
+    <t>DDZ9699T-7</t>
+  </si>
+  <si>
+    <t>zener</t>
+  </si>
+  <si>
+    <t>0,41 €</t>
+  </si>
+  <si>
+    <t>Díode</t>
+  </si>
+  <si>
+    <t>BYV10MX-600PQ</t>
+  </si>
+  <si>
+    <t>diode</t>
+  </si>
+  <si>
+    <t>0,54 €</t>
+  </si>
+  <si>
+    <t>RFID</t>
+  </si>
+  <si>
+    <t>DLP-RFID2</t>
+  </si>
+  <si>
+    <t>rfid</t>
+  </si>
+  <si>
+    <t>35,04 €</t>
+  </si>
+  <si>
+    <t>Motor lineal (150N, 2A) (opc)</t>
+  </si>
+  <si>
+    <t>DLA-12-5-A-50-IP65</t>
+  </si>
+  <si>
+    <t>motor-lineal</t>
+  </si>
+  <si>
+    <t>Transmotec</t>
+  </si>
+  <si>
+    <t>303,5 €</t>
+  </si>
+  <si>
+    <t>Final de Carrera (5V)</t>
+  </si>
+  <si>
+    <t>ESE-22MV21T</t>
+  </si>
+  <si>
+    <t>Final-Carrera</t>
+  </si>
+  <si>
+    <t>0,42 €</t>
+  </si>
+  <si>
+    <t>DC/DC 5V (2A, +/-49.5mV)</t>
+  </si>
+  <si>
+    <t>P7805-2000R-S</t>
+  </si>
+  <si>
+    <t>dcdc2A</t>
+  </si>
+  <si>
+    <t>5,53 €</t>
+  </si>
+  <si>
+    <t>DC/DC 3.3V (3A, +/-33.3mV)</t>
+  </si>
+  <si>
+    <t>P783-Q24-S3-S</t>
+  </si>
+  <si>
+    <t>dcdc3A</t>
+  </si>
+  <si>
+    <t>15,07 €</t>
+  </si>
+  <si>
+    <t>C Tan 1u 20V 3216-18</t>
+  </si>
+  <si>
+    <t>T491A105K020AT4360</t>
+  </si>
+  <si>
+    <t>ctant1u</t>
+  </si>
+  <si>
+    <t>0,07 €</t>
+  </si>
+  <si>
+    <t>C Cer 22u 10V 1206</t>
+  </si>
+  <si>
+    <t>CL31B226KPHNNWE</t>
+  </si>
+  <si>
+    <t>cer22u</t>
+  </si>
+  <si>
+    <t>0,086 €</t>
+  </si>
+  <si>
+    <t>C Cer 22u 50V</t>
+  </si>
+  <si>
+    <t>KTS500B226M76N0T00</t>
+  </si>
+  <si>
+    <t>ccer22u50v</t>
+  </si>
+  <si>
+    <t>3,58 €</t>
+  </si>
+  <si>
+    <t>C Cer 10n 25V 1206</t>
+  </si>
+  <si>
+    <t>KAM31BR81H103KT</t>
+  </si>
+  <si>
+    <t>ccer10n50v</t>
+  </si>
+  <si>
+    <t>0,28 €</t>
+  </si>
+  <si>
+    <t>C Ele 4.7u 35V</t>
+  </si>
+  <si>
+    <t>cele4.7u</t>
+  </si>
+  <si>
+    <t>0,17 €</t>
+  </si>
+  <si>
+    <t>C Ele 47u 16V</t>
+  </si>
+  <si>
+    <t>cele74u</t>
+  </si>
+  <si>
+    <t>0,09 €</t>
+  </si>
+  <si>
+    <t>C Cer 1u 25V 0805</t>
+  </si>
+  <si>
+    <t>C0805C105K3RAC</t>
+  </si>
+  <si>
+    <t>cer1u25v</t>
+  </si>
+  <si>
+    <t>0,021 €</t>
+  </si>
+  <si>
+    <t>C Cer 0.1u 50V 0805</t>
+  </si>
+  <si>
+    <t>C0805C104M5RAC</t>
+  </si>
+  <si>
+    <t>cer100n0805</t>
+  </si>
+  <si>
+    <t>0,008 €</t>
+  </si>
+  <si>
+    <t>C Cer 21p 50V 01005</t>
+  </si>
+  <si>
+    <t>GRM0225C1H210GA02L</t>
+  </si>
+  <si>
+    <t>cer21p01005</t>
+  </si>
+  <si>
+    <t>R 120 125mW 0805</t>
+  </si>
+  <si>
+    <t>CQ05WAF1200T5E</t>
+  </si>
+  <si>
+    <t>r120</t>
+  </si>
+  <si>
+    <t>0,002 €</t>
+  </si>
+  <si>
+    <t>R 1k 125mW 0805</t>
+  </si>
+  <si>
+    <t>TC05W8F1001T5G</t>
+  </si>
+  <si>
+    <t>r1k</t>
+  </si>
+  <si>
+    <t>0,007 €</t>
+  </si>
+  <si>
+    <t>R 330 125mW 0805</t>
+  </si>
+  <si>
+    <t>TC0550F3300T5F</t>
+  </si>
+  <si>
+    <t>r330</t>
+  </si>
+  <si>
+    <t>R 10k 0.25W 0805</t>
+  </si>
+  <si>
+    <t>RNCP0805JTD10K0</t>
+  </si>
+  <si>
+    <t>r10k</t>
+  </si>
+  <si>
+    <t>R 100k 125mW 0805</t>
+  </si>
+  <si>
+    <t>TC0550F1003T5G</t>
+  </si>
+  <si>
+    <t>r100k</t>
+  </si>
+  <si>
+    <t>R 33k 125mW 0805</t>
+  </si>
+  <si>
+    <t>TC0550D3302T5G</t>
+  </si>
+  <si>
+    <t>r33k</t>
+  </si>
+  <si>
+    <t>Unitats</t>
+  </si>
+  <si>
+    <t>1 PCB</t>
+  </si>
+  <si>
+    <t>10 PCB</t>
+  </si>
+  <si>
+    <t>50 PCB</t>
+  </si>
+  <si>
+    <t>1000 PCB</t>
+  </si>
+  <si>
+    <t>Preu unitari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,20 +403,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,22 +452,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -440,185 +747,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" customWidth="1"/>
+    <col min="8" max="18" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>26.74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5.63</v>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1">
+        <v>865080540002</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3">
+        <v>860010372004</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{63D99C59-8484-4915-8E9F-F3C84372724B}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{57E0620F-E571-4152-82CD-ADBEBE9A8B75}"/>
-    <hyperlink ref="E3" r:id="rId3" display="link" xr:uid="{D1648A63-80B1-4D17-A764-EF429EB3C1B3}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{B0668370-9F4C-4755-BEB5-9AE267736D4F}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{8FA8B0CE-2234-4244-A2F8-98255F8E228A}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{82435D39-437B-4DEA-A29C-ED65F8849CFF}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{A6CFA6E3-A482-4C86-917F-7C42951D9FA2}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{96344149-E7A1-4BD3-9135-CFB2318FCDF7}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{AC9EFBAA-7FAA-4CB1-AD6C-CF655611EAB6}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{B2DFE94B-C91A-4BA0-878E-BAEA0D1C4771}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{E2B74842-4194-44D8-8F94-A1F4A5D8F322}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{1769CAFE-8039-46EA-9C3C-FC95913B1A42}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{55E68E2C-076B-449D-9988-44FE703188A1}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{04C2BE22-F9AB-41FD-AEF2-B5767640281B}"/>
+    <hyperlink ref="E31" r:id="rId1" display="https://eu.mouser.com/ProductDetail/Royalohm/TC0550D3302T5G?qs=Wj%2FVkw3K%252BMB5M6MpcX7%252Byw%3D%3D" xr:uid="{35EF156D-EF85-443E-A67A-AEA1B4F3B6F9}"/>
+    <hyperlink ref="D31" r:id="rId2" display="https://eu.mouser.com/datasheet/2/1365/Royalohm_09132021_9__Thin_Film_20200106-2580434.pdf" xr:uid="{EDE9AB5B-EFA8-429F-A7F7-11872BAC6D69}"/>
+    <hyperlink ref="E30" r:id="rId3" display="https://eu.mouser.com/ProductDetail/Royalohm/TC0550F1003T5G?qs=Wj%2FVkw3K%252BMBYxpaKle1zIA%3D%3D" xr:uid="{E5037130-3169-46A8-9D96-351467B60F90}"/>
+    <hyperlink ref="D30" r:id="rId4" display="https://eu.mouser.com/datasheet/2/1365/Royalohm_09132021_9__Thin_Film_20200106-2580434.pdf" xr:uid="{E6974C46-C30C-4C69-9AE0-70C75AC53239}"/>
+    <hyperlink ref="E29" r:id="rId5" display="https://eu.mouser.com/ProductDetail/SEI-Stackpole/RNCP0805JTD10K0?qs=IPgv5n7u5QaJFxYpOecM6A%3D%3D" xr:uid="{1DB00E48-F9E1-4958-B810-CDF887F5210D}"/>
+    <hyperlink ref="D29" r:id="rId6" display="https://eu.mouser.com/datasheet/2/385/SEI_rncp-3077653.pdf" xr:uid="{28924AD1-D03B-4DAA-B480-B8D5959A0209}"/>
+    <hyperlink ref="E28" r:id="rId7" display="https://eu.mouser.com/ProductDetail/Royalohm/TC0550F3300T5F?qs=T%252BzbugeAwjgeSBQZlDaTmA%3D%3D" xr:uid="{7D8357F7-2719-42FC-BB28-0E9F424D0A17}"/>
+    <hyperlink ref="D28" r:id="rId8" display="https://eu.mouser.com/datasheet/2/1365/21-3077223.pdf" xr:uid="{91E179AA-0EDF-4678-A53E-D153610EB025}"/>
+    <hyperlink ref="E27" r:id="rId9" display="https://eu.mouser.com/ProductDetail/Royalohm/TC05W8F1001T5G?qs=ST9lo4GX8V0X3zBMraFh1A%3D%3D" xr:uid="{55DDD406-97F6-4BAD-BD53-67F37AAF6659}"/>
+    <hyperlink ref="D27" r:id="rId10" display="https://eu.mouser.com/datasheet/2/1365/21-3077223.pdf" xr:uid="{0B741CC7-C30C-4ADD-8093-89236029C7A1}"/>
+    <hyperlink ref="E26" r:id="rId11" display="https://www.mouser.es/ProductDetail/Royalohm/CQ05WAF1200T5E?qs=sGAEpiMZZMtlubZbdhIBINZaoL9yqB51WBf9LviuJYE%3D" xr:uid="{A1ABE773-664E-4732-86CC-F2749E1E54FE}"/>
+    <hyperlink ref="D26" r:id="rId12" display="https://www.mouser.es/datasheet/2/1365/10-3358738.pdf" xr:uid="{ECDB5A90-F05A-4B09-8298-3593105B2118}"/>
+    <hyperlink ref="E25" r:id="rId13" display="https://eu.mouser.com/ProductDetail/Murata-Electronics/GRM0225C1H210GA02L?qs=qkDYIeTQ%252BEl6hnZ3ixEkiA%3D%3D" xr:uid="{2A3D628E-C0A4-4988-9307-6554EE648649}"/>
+    <hyperlink ref="D25" r:id="rId14" display="https://eu.mouser.com/datasheet/2/281/murata_03052018_GRM_Series_1-1310166.pdf" xr:uid="{E882C9D8-5FF1-4A17-87F0-97199BA725F7}"/>
+    <hyperlink ref="E24" r:id="rId15" display="https://eu.mouser.com/ProductDetail/KEMET/C0805C104M5RAC?qs=VOOUd%252Bza08rWzt4y8eXMuQ%3D%3D" xr:uid="{AF7CA242-553D-491B-912A-A6B98FCC6172}"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://eu.mouser.com/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{189FFA01-0511-411E-9C7C-D7425091DD2D}"/>
+    <hyperlink ref="E23" r:id="rId17" display="https://www.mouser.es/ProductDetail/KEMET/C0805C105K3RAC?qs=ycRbFa0SLRQpHhAu2LUs4g%3D%3D" xr:uid="{0FCC25C3-D9DF-4B4B-BCCA-759AE08E3E7C}"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://www.mouser.es/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{A4366032-B6AD-4B6E-86E4-651A6FB94739}"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://www.mouser.es/ProductDetail/Wurth-Elektronik/860010372004?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6V%2FBdkDX4IUo%3D" xr:uid="{F6A9C276-C183-40D6-BCE3-88BD25B8FE21}"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://www.we-online.com/components/products/datasheet/860010372004.pdf" xr:uid="{64F47EB5-5E4F-4456-9BA1-C34A10157607}"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://eu.mouser.com/ProductDetail/Wurth-Elektronik/865080540002?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6puNwow3HMPo%3D" xr:uid="{533CB1B0-DAA5-419A-95D2-3F13D2CD595B}"/>
+    <hyperlink ref="D21" r:id="rId22" display="https://www.we-online.com/components/products/datasheet/865080540002.pdf" xr:uid="{B821F353-7CE6-48D6-94F5-881014D70828}"/>
+    <hyperlink ref="E20" r:id="rId23" display="https://eu.mouser.com/ProductDetail/KYOCERA-AVX/KAM31BR81H103KT?qs=Jm2GQyTW%2FbjzijSUJGW%2FJA%3D%3D" xr:uid="{FCBCC094-A86A-46A6-A04F-8AB770EF6DE4}"/>
+    <hyperlink ref="D20" r:id="rId24" display="https://eu.mouser.com/datasheet/2/40/AutoMLCCKAM-3216307.pdf" xr:uid="{1DDA3BEE-8BEB-4DE8-9F38-782C4EF1D470}"/>
+    <hyperlink ref="E19" r:id="rId25" display="https://eu.mouser.com/ProductDetail/Chemi-Con/KTS500B226M76N0T00?qs=yFwz03cOJpkGGSneI4ka0Q%3D%3D" xr:uid="{F1403E85-644F-4A09-AABD-730E2BD5559C}"/>
+    <hyperlink ref="D19" r:id="rId26" display="https://eu.mouser.com/datasheet/2/420/nipc_s_a0010886389_1-2285932.pdf" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
+    <hyperlink ref="E18" r:id="rId27" display="https://eu.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B226KPHNNWE?qs=xZ%2FP%252Ba9zWqYr7HUxVtf3Yw%3D%3D" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
+    <hyperlink ref="D18" r:id="rId28" display="https://eu.mouser.com/datasheet/2/585/MLCC-1837944.pdf" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
+    <hyperlink ref="E17" r:id="rId29" display="https://eu.mouser.com/ProductDetail/KEMET/T491A105K020AT4360?qs=sGAEpiMZZMsh%252B1woXyUXjyEnHz%2F1kG1y%2Fw9r1ZBsrUs%3D" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
+    <hyperlink ref="D17" r:id="rId30" display="https://eu.mouser.com/datasheet/2/447/KEM_T2005_T491-3316937.pdf" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
+    <hyperlink ref="E16" r:id="rId31" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P783-Q24-S3-S?qs=sPbYRqrBIVl7G8uy4wpmww%3D%3D" xr:uid="{5034372E-BC57-4295-8C83-857784642725}"/>
+    <hyperlink ref="D16" r:id="rId32" display="https://eu.mouser.com/datasheet/2/670/p783_s-1889817.pdf" xr:uid="{A9529BFF-D871-4C13-8588-2BD41905549C}"/>
+    <hyperlink ref="E15" r:id="rId33" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P7803-2000R-S?qs=vvQtp7zwQdObalelOc2Obw%3D%3D" xr:uid="{C2C8252F-E7E4-486F-B1F3-C782844ADC09}"/>
+    <hyperlink ref="D15" r:id="rId34" display="https://eu.mouser.com/datasheet/2/670/p78_2000r_s-3070500.pdf" xr:uid="{575E9712-908F-4D76-9794-3508D883A1FB}"/>
+    <hyperlink ref="E14" r:id="rId35" display="https://www.digikey.es/en/products/detail/panasonic-electronic-components/ESE-22MV21T/1245478" xr:uid="{1099D7E3-52BC-48BC-933F-8C0F98525346}"/>
+    <hyperlink ref="D14" r:id="rId36" display="https://industrial.panasonic.com/cdbs/www-data/pdf/ATB0000/ATB0000C12.pdf" xr:uid="{5F4EE5B4-26DE-4411-8999-75C0DA7655C7}"/>
+    <hyperlink ref="E13" r:id="rId37" display="https://www.transmotec.com/product/dla-12-5-a-50-pot-ip65/" xr:uid="{BECB3E5C-6E02-4679-BC41-66837FBB6182}"/>
+    <hyperlink ref="D13" r:id="rId38" display="https://www.transmotec.com/Download/Catalog/Transmotec-EN-DLA-2022.pdf" xr:uid="{DBBD1B73-3BF9-41B5-ADA0-27797FA69C65}"/>
+    <hyperlink ref="E12" r:id="rId39" display="https://www.digikey.es/en/products/detail/dlp-design-inc/DLP-RFID2/3770244" xr:uid="{D2798009-9944-41A4-9B3D-A0230B356EDE}"/>
+    <hyperlink ref="D12" r:id="rId40" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5656/DLP-RFID2%28D%29-V2.pdf" xr:uid="{D2B4A64B-5FB8-4162-9305-21CE0BF83744}"/>
+    <hyperlink ref="E11" r:id="rId41" display="https://eu.mouser.com/ProductDetail/WeEn-Semiconductors/BYV10MX-600PQ?qs=QNEnbhJQKvYwaGjd%2F4%252BPWg%3D%3D" xr:uid="{2C07A25C-BDB7-45D5-B385-102D04297979}"/>
+    <hyperlink ref="D11" r:id="rId42" display="https://eu.mouser.com/datasheet/2/848/BYV10MX_600P-2401273.pdf" xr:uid="{66A8F858-446A-4571-882A-468093586CEA}"/>
+    <hyperlink ref="E10" r:id="rId43" display="https://eu.mouser.com/ProductDetail/Diodes-Incorporated/DDZ9699T-7?qs=mQbszxtPdlOBwg08InvD3Q%3D%3D" xr:uid="{8D1DFAF5-5599-444E-9969-36F8DB7A95D1}"/>
+    <hyperlink ref="D10" r:id="rId44" display="https://eu.mouser.com/datasheet/2/115/DIOD_S_A0003550665_1-2542209.pdf" xr:uid="{F6538011-E1AE-4C68-B1F2-EE1AC604FC86}"/>
+    <hyperlink ref="E9" r:id="rId45" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TMCS1123B2AQDVGR?qs=sGAEpiMZZMsPDRSCoHb1X5I%2FjBVAAn8DJGrzHYBTAmBFitJQJPL%2Fbw%3D%3D" xr:uid="{46D5EF1D-824D-444B-B662-7B00E044AE73}"/>
+    <hyperlink ref="D9" r:id="rId46" display="https://www.ti.com/lit/ds/symlink/tmcs1123.pdf?ts=1711707167099&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTMCS1123%253Futm_source%253Dgoogle%2526utm_medium%253Dcpc%2526utm_campaign%253Dasc-null-null-GPN_EN-cpc-pf-google-wwe_cons%2526utm_content%253DTMCS1123%2526ds_k%253DTMCS1123%2526DCM%253Dyes%2526gad_source%253D1%2526gclid%253DEAIaIQobChMIrdeOip6ZhQMVVSitBh03AwOFEAAYAiAAEgLiCfD_BwE%2526gclsrc%253Daw.ds" xr:uid="{D9CFA107-7C26-4E7A-9C55-1F3291C7142F}"/>
+    <hyperlink ref="E8" r:id="rId47" display="https://www.mouser.es/ProductDetail/Analog-Devices-Maxim-Integrated/MAX22201ATC%2b?qs=stqOd1AaK7%252Bdqi04%2FQHs9Q%3D%3D" xr:uid="{51F98C54-7CA0-49FA-8356-2D3193CDD48A}"/>
+    <hyperlink ref="D8" r:id="rId48" display="https://www.mouser.es/datasheet/2/609/MAX22201_MAX22207-3127854.pdf" xr:uid="{629666F3-4A26-452E-AD59-C00275E54C54}"/>
+    <hyperlink ref="E7" r:id="rId49" display="https://www.mouser.es/ProductDetail/ECS/ECS-3225SMV-080-GP-TR?qs=sGAEpiMZZMtldj7qu1ydrbV2KlGvrVWIvUi3jDw2tLHT0SWfK9heCg%3D%3D" xr:uid="{6DA03D7F-C859-4E92-97B1-5929295CA1C1}"/>
+    <hyperlink ref="D7" r:id="rId50" display="https://www.mouser.es/datasheet/2/122/ECS_3225SMV-1623609.pdf" xr:uid="{C2916E02-F1CB-473D-91D6-5AC4DA0D25C5}"/>
+    <hyperlink ref="E6" r:id="rId51" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TCAN3413DR?qs=sGAEpiMZZMuyKkoWRCJ2WCtyf8MLmt92v%252BoGH2%2F%2FnqAqFeWM6BEVrA%3D%3D" xr:uid="{FC8577AB-10E8-45F3-A4EE-AE09A12E6AAE}"/>
+    <hyperlink ref="D6" r:id="rId52" display="https://www.ti.com/lit/ds/symlink/tcan3414.pdf?ts=1711721678762&amp;ref_url=https%253A%252F%252Fwww.mouser.it%252F" xr:uid="{8BC71C0B-8C31-4D65-A043-9A152E9FC4D8}"/>
+    <hyperlink ref="E5" r:id="rId53" display="https://www.mouser.es/ProductDetail/Nidec-Components/HG37-200-AA-00?qs=Wj%2FVkw3K%252BMBRymxOaiVRvg%3D%3D" xr:uid="{C21388A6-2475-4EFE-BD4C-C0258FE9CD09}"/>
+    <hyperlink ref="D5" r:id="rId54" display="https://www.mouser.es/datasheet/2/972/hg37-2525173.pdf" xr:uid="{DCF6A55D-4B93-4C71-8827-F55E8B5FD1A1}"/>
+    <hyperlink ref="E4" r:id="rId55" display="https://www.digikey.es/en/products/detail/rochester-electronics-llc/LT1528CT-PBF/13481919" xr:uid="{376C3220-DF16-4F6E-AF12-20F002007E42}"/>
+    <hyperlink ref="D4" r:id="rId56" display="https://rocelec.widen.net/view/pdf/nbjrjihvdn/LITCS09222-1.pdf?t.download=true&amp;u=5oefqw" xr:uid="{7D338460-CBA5-4417-B281-6DAF716625ED}"/>
+    <hyperlink ref="E3" r:id="rId57" display="https://www.mouser.es/ProductDetail/Microchip-Technology/PIC32MK0256MCJ048-E-Y8X?qs=vmHwEFxEFR%2FV8wN%2Fdp0noA%3D%3D" xr:uid="{8E6608C9-F0D5-4A88-8253-77AEBEE4BACE}"/>
+    <hyperlink ref="D3" r:id="rId58" display="https://ww1.microchip.com/downloads/aemDocuments/documents/MCU32/ProductDocuments/DataSheets/PIC32MK-General-Purpose-and-Motor-Control-With-CAN-FD-Family-DataSheet-DS60001570D.pdf" xr:uid="{6250C50A-E1B9-447F-89C8-081DB1A26476}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ED4E95E98BE39645B2A5122B59228C1C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="befa2a1b9a24cffd904810867b8b238f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="289a0874-0c95-4191-841a-e39351615097" xmlns:ns4="2815469b-4fcf-457f-81f1-22ea46bc5ebe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b584bc5519d0f097e66008559945f81" ns3:_="" ns4:_="">
     <xsd:import namespace="289a0874-0c95-4191-841a-e39351615097"/>
@@ -847,6 +1646,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -857,23 +1664,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD36479-96DD-494E-99AD-96D567315D91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -892,6 +1682,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
   <ds:schemaRefs>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3126E3F6-8044-4E94-9F67-B8A82C4D3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64706CF9-9313-4F21-B33E-EA533105519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>uC</t>
   </si>
   <si>
@@ -303,15 +300,6 @@
     <t>0,008 €</t>
   </si>
   <si>
-    <t>C Cer 21p 50V 01005</t>
-  </si>
-  <si>
-    <t>GRM0225C1H210GA02L</t>
-  </si>
-  <si>
-    <t>cer21p01005</t>
-  </si>
-  <si>
     <t>R 120 125mW 0805</t>
   </si>
   <si>
@@ -372,29 +360,50 @@
     <t>r33k</t>
   </si>
   <si>
-    <t>Unitats</t>
-  </si>
-  <si>
-    <t>1 PCB</t>
-  </si>
-  <si>
-    <t>10 PCB</t>
-  </si>
-  <si>
-    <t>50 PCB</t>
-  </si>
-  <si>
-    <t>1000 PCB</t>
-  </si>
-  <si>
-    <t>Preu unitari</t>
+    <t>ASZKDV_ABR</t>
+  </si>
+  <si>
+    <t>1xPCB</t>
+  </si>
+  <si>
+    <t>50xPCB</t>
+  </si>
+  <si>
+    <t>10xPCB</t>
+  </si>
+  <si>
+    <t>1000xPCB</t>
+  </si>
+  <si>
+    <t>20000xPCB</t>
+  </si>
+  <si>
+    <t>Unity price</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Preu Total PCB</t>
+  </si>
+  <si>
+    <t>Preu unitari PCB</t>
+  </si>
+  <si>
+    <t>2,24 €</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +419,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -443,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -451,19 +476,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,610 +792,944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P31"/>
+  <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" customWidth="1"/>
+    <col min="4" max="6" width="10.77734375" customWidth="1"/>
     <col min="8" max="18" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4">
+        <v>865080540002</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2">
+        <v>860010372004</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="1">
-        <v>865080540002</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="3">
-        <v>860010372004</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>91</v>
-      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1366,54 +1745,55 @@
     <hyperlink ref="D27" r:id="rId10" display="https://eu.mouser.com/datasheet/2/1365/21-3077223.pdf" xr:uid="{0B741CC7-C30C-4ADD-8093-89236029C7A1}"/>
     <hyperlink ref="E26" r:id="rId11" display="https://www.mouser.es/ProductDetail/Royalohm/CQ05WAF1200T5E?qs=sGAEpiMZZMtlubZbdhIBINZaoL9yqB51WBf9LviuJYE%3D" xr:uid="{A1ABE773-664E-4732-86CC-F2749E1E54FE}"/>
     <hyperlink ref="D26" r:id="rId12" display="https://www.mouser.es/datasheet/2/1365/10-3358738.pdf" xr:uid="{ECDB5A90-F05A-4B09-8298-3593105B2118}"/>
-    <hyperlink ref="E25" r:id="rId13" display="https://eu.mouser.com/ProductDetail/Murata-Electronics/GRM0225C1H210GA02L?qs=qkDYIeTQ%252BEl6hnZ3ixEkiA%3D%3D" xr:uid="{2A3D628E-C0A4-4988-9307-6554EE648649}"/>
-    <hyperlink ref="D25" r:id="rId14" display="https://eu.mouser.com/datasheet/2/281/murata_03052018_GRM_Series_1-1310166.pdf" xr:uid="{E882C9D8-5FF1-4A17-87F0-97199BA725F7}"/>
-    <hyperlink ref="E24" r:id="rId15" display="https://eu.mouser.com/ProductDetail/KEMET/C0805C104M5RAC?qs=VOOUd%252Bza08rWzt4y8eXMuQ%3D%3D" xr:uid="{AF7CA242-553D-491B-912A-A6B98FCC6172}"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://eu.mouser.com/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{189FFA01-0511-411E-9C7C-D7425091DD2D}"/>
-    <hyperlink ref="E23" r:id="rId17" display="https://www.mouser.es/ProductDetail/KEMET/C0805C105K3RAC?qs=ycRbFa0SLRQpHhAu2LUs4g%3D%3D" xr:uid="{0FCC25C3-D9DF-4B4B-BCCA-759AE08E3E7C}"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://www.mouser.es/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{A4366032-B6AD-4B6E-86E4-651A6FB94739}"/>
-    <hyperlink ref="E22" r:id="rId19" display="https://www.mouser.es/ProductDetail/Wurth-Elektronik/860010372004?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6V%2FBdkDX4IUo%3D" xr:uid="{F6A9C276-C183-40D6-BCE3-88BD25B8FE21}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://www.we-online.com/components/products/datasheet/860010372004.pdf" xr:uid="{64F47EB5-5E4F-4456-9BA1-C34A10157607}"/>
-    <hyperlink ref="E21" r:id="rId21" display="https://eu.mouser.com/ProductDetail/Wurth-Elektronik/865080540002?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6puNwow3HMPo%3D" xr:uid="{533CB1B0-DAA5-419A-95D2-3F13D2CD595B}"/>
-    <hyperlink ref="D21" r:id="rId22" display="https://www.we-online.com/components/products/datasheet/865080540002.pdf" xr:uid="{B821F353-7CE6-48D6-94F5-881014D70828}"/>
-    <hyperlink ref="E20" r:id="rId23" display="https://eu.mouser.com/ProductDetail/KYOCERA-AVX/KAM31BR81H103KT?qs=Jm2GQyTW%2FbjzijSUJGW%2FJA%3D%3D" xr:uid="{FCBCC094-A86A-46A6-A04F-8AB770EF6DE4}"/>
-    <hyperlink ref="D20" r:id="rId24" display="https://eu.mouser.com/datasheet/2/40/AutoMLCCKAM-3216307.pdf" xr:uid="{1DDA3BEE-8BEB-4DE8-9F38-782C4EF1D470}"/>
-    <hyperlink ref="E19" r:id="rId25" display="https://eu.mouser.com/ProductDetail/Chemi-Con/KTS500B226M76N0T00?qs=yFwz03cOJpkGGSneI4ka0Q%3D%3D" xr:uid="{F1403E85-644F-4A09-AABD-730E2BD5559C}"/>
-    <hyperlink ref="D19" r:id="rId26" display="https://eu.mouser.com/datasheet/2/420/nipc_s_a0010886389_1-2285932.pdf" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
-    <hyperlink ref="E18" r:id="rId27" display="https://eu.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B226KPHNNWE?qs=xZ%2FP%252Ba9zWqYr7HUxVtf3Yw%3D%3D" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
-    <hyperlink ref="D18" r:id="rId28" display="https://eu.mouser.com/datasheet/2/585/MLCC-1837944.pdf" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
-    <hyperlink ref="E17" r:id="rId29" display="https://eu.mouser.com/ProductDetail/KEMET/T491A105K020AT4360?qs=sGAEpiMZZMsh%252B1woXyUXjyEnHz%2F1kG1y%2Fw9r1ZBsrUs%3D" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
-    <hyperlink ref="D17" r:id="rId30" display="https://eu.mouser.com/datasheet/2/447/KEM_T2005_T491-3316937.pdf" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
-    <hyperlink ref="E16" r:id="rId31" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P783-Q24-S3-S?qs=sPbYRqrBIVl7G8uy4wpmww%3D%3D" xr:uid="{5034372E-BC57-4295-8C83-857784642725}"/>
-    <hyperlink ref="D16" r:id="rId32" display="https://eu.mouser.com/datasheet/2/670/p783_s-1889817.pdf" xr:uid="{A9529BFF-D871-4C13-8588-2BD41905549C}"/>
-    <hyperlink ref="E15" r:id="rId33" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P7803-2000R-S?qs=vvQtp7zwQdObalelOc2Obw%3D%3D" xr:uid="{C2C8252F-E7E4-486F-B1F3-C782844ADC09}"/>
-    <hyperlink ref="D15" r:id="rId34" display="https://eu.mouser.com/datasheet/2/670/p78_2000r_s-3070500.pdf" xr:uid="{575E9712-908F-4D76-9794-3508D883A1FB}"/>
-    <hyperlink ref="E14" r:id="rId35" display="https://www.digikey.es/en/products/detail/panasonic-electronic-components/ESE-22MV21T/1245478" xr:uid="{1099D7E3-52BC-48BC-933F-8C0F98525346}"/>
-    <hyperlink ref="D14" r:id="rId36" display="https://industrial.panasonic.com/cdbs/www-data/pdf/ATB0000/ATB0000C12.pdf" xr:uid="{5F4EE5B4-26DE-4411-8999-75C0DA7655C7}"/>
-    <hyperlink ref="E13" r:id="rId37" display="https://www.transmotec.com/product/dla-12-5-a-50-pot-ip65/" xr:uid="{BECB3E5C-6E02-4679-BC41-66837FBB6182}"/>
-    <hyperlink ref="D13" r:id="rId38" display="https://www.transmotec.com/Download/Catalog/Transmotec-EN-DLA-2022.pdf" xr:uid="{DBBD1B73-3BF9-41B5-ADA0-27797FA69C65}"/>
-    <hyperlink ref="E12" r:id="rId39" display="https://www.digikey.es/en/products/detail/dlp-design-inc/DLP-RFID2/3770244" xr:uid="{D2798009-9944-41A4-9B3D-A0230B356EDE}"/>
-    <hyperlink ref="D12" r:id="rId40" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5656/DLP-RFID2%28D%29-V2.pdf" xr:uid="{D2B4A64B-5FB8-4162-9305-21CE0BF83744}"/>
-    <hyperlink ref="E11" r:id="rId41" display="https://eu.mouser.com/ProductDetail/WeEn-Semiconductors/BYV10MX-600PQ?qs=QNEnbhJQKvYwaGjd%2F4%252BPWg%3D%3D" xr:uid="{2C07A25C-BDB7-45D5-B385-102D04297979}"/>
-    <hyperlink ref="D11" r:id="rId42" display="https://eu.mouser.com/datasheet/2/848/BYV10MX_600P-2401273.pdf" xr:uid="{66A8F858-446A-4571-882A-468093586CEA}"/>
-    <hyperlink ref="E10" r:id="rId43" display="https://eu.mouser.com/ProductDetail/Diodes-Incorporated/DDZ9699T-7?qs=mQbszxtPdlOBwg08InvD3Q%3D%3D" xr:uid="{8D1DFAF5-5599-444E-9969-36F8DB7A95D1}"/>
-    <hyperlink ref="D10" r:id="rId44" display="https://eu.mouser.com/datasheet/2/115/DIOD_S_A0003550665_1-2542209.pdf" xr:uid="{F6538011-E1AE-4C68-B1F2-EE1AC604FC86}"/>
-    <hyperlink ref="E9" r:id="rId45" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TMCS1123B2AQDVGR?qs=sGAEpiMZZMsPDRSCoHb1X5I%2FjBVAAn8DJGrzHYBTAmBFitJQJPL%2Fbw%3D%3D" xr:uid="{46D5EF1D-824D-444B-B662-7B00E044AE73}"/>
-    <hyperlink ref="D9" r:id="rId46" display="https://www.ti.com/lit/ds/symlink/tmcs1123.pdf?ts=1711707167099&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTMCS1123%253Futm_source%253Dgoogle%2526utm_medium%253Dcpc%2526utm_campaign%253Dasc-null-null-GPN_EN-cpc-pf-google-wwe_cons%2526utm_content%253DTMCS1123%2526ds_k%253DTMCS1123%2526DCM%253Dyes%2526gad_source%253D1%2526gclid%253DEAIaIQobChMIrdeOip6ZhQMVVSitBh03AwOFEAAYAiAAEgLiCfD_BwE%2526gclsrc%253Daw.ds" xr:uid="{D9CFA107-7C26-4E7A-9C55-1F3291C7142F}"/>
-    <hyperlink ref="E8" r:id="rId47" display="https://www.mouser.es/ProductDetail/Analog-Devices-Maxim-Integrated/MAX22201ATC%2b?qs=stqOd1AaK7%252Bdqi04%2FQHs9Q%3D%3D" xr:uid="{51F98C54-7CA0-49FA-8356-2D3193CDD48A}"/>
-    <hyperlink ref="D8" r:id="rId48" display="https://www.mouser.es/datasheet/2/609/MAX22201_MAX22207-3127854.pdf" xr:uid="{629666F3-4A26-452E-AD59-C00275E54C54}"/>
-    <hyperlink ref="E7" r:id="rId49" display="https://www.mouser.es/ProductDetail/ECS/ECS-3225SMV-080-GP-TR?qs=sGAEpiMZZMtldj7qu1ydrbV2KlGvrVWIvUi3jDw2tLHT0SWfK9heCg%3D%3D" xr:uid="{6DA03D7F-C859-4E92-97B1-5929295CA1C1}"/>
-    <hyperlink ref="D7" r:id="rId50" display="https://www.mouser.es/datasheet/2/122/ECS_3225SMV-1623609.pdf" xr:uid="{C2916E02-F1CB-473D-91D6-5AC4DA0D25C5}"/>
-    <hyperlink ref="E6" r:id="rId51" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TCAN3413DR?qs=sGAEpiMZZMuyKkoWRCJ2WCtyf8MLmt92v%252BoGH2%2F%2FnqAqFeWM6BEVrA%3D%3D" xr:uid="{FC8577AB-10E8-45F3-A4EE-AE09A12E6AAE}"/>
-    <hyperlink ref="D6" r:id="rId52" display="https://www.ti.com/lit/ds/symlink/tcan3414.pdf?ts=1711721678762&amp;ref_url=https%253A%252F%252Fwww.mouser.it%252F" xr:uid="{8BC71C0B-8C31-4D65-A043-9A152E9FC4D8}"/>
-    <hyperlink ref="E5" r:id="rId53" display="https://www.mouser.es/ProductDetail/Nidec-Components/HG37-200-AA-00?qs=Wj%2FVkw3K%252BMBRymxOaiVRvg%3D%3D" xr:uid="{C21388A6-2475-4EFE-BD4C-C0258FE9CD09}"/>
-    <hyperlink ref="D5" r:id="rId54" display="https://www.mouser.es/datasheet/2/972/hg37-2525173.pdf" xr:uid="{DCF6A55D-4B93-4C71-8827-F55E8B5FD1A1}"/>
-    <hyperlink ref="E4" r:id="rId55" display="https://www.digikey.es/en/products/detail/rochester-electronics-llc/LT1528CT-PBF/13481919" xr:uid="{376C3220-DF16-4F6E-AF12-20F002007E42}"/>
-    <hyperlink ref="D4" r:id="rId56" display="https://rocelec.widen.net/view/pdf/nbjrjihvdn/LITCS09222-1.pdf?t.download=true&amp;u=5oefqw" xr:uid="{7D338460-CBA5-4417-B281-6DAF716625ED}"/>
-    <hyperlink ref="E3" r:id="rId57" display="https://www.mouser.es/ProductDetail/Microchip-Technology/PIC32MK0256MCJ048-E-Y8X?qs=vmHwEFxEFR%2FV8wN%2Fdp0noA%3D%3D" xr:uid="{8E6608C9-F0D5-4A88-8253-77AEBEE4BACE}"/>
-    <hyperlink ref="D3" r:id="rId58" display="https://ww1.microchip.com/downloads/aemDocuments/documents/MCU32/ProductDocuments/DataSheets/PIC32MK-General-Purpose-and-Motor-Control-With-CAN-FD-Family-DataSheet-DS60001570D.pdf" xr:uid="{6250C50A-E1B9-447F-89C8-081DB1A26476}"/>
+    <hyperlink ref="E25" r:id="rId13" display="https://eu.mouser.com/ProductDetail/KEMET/C0805C104M5RAC?qs=VOOUd%252Bza08rWzt4y8eXMuQ%3D%3D" xr:uid="{AF7CA242-553D-491B-912A-A6B98FCC6172}"/>
+    <hyperlink ref="D25" r:id="rId14" display="https://eu.mouser.com/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{189FFA01-0511-411E-9C7C-D7425091DD2D}"/>
+    <hyperlink ref="E24" r:id="rId15" display="https://www.mouser.es/ProductDetail/KEMET/C0805C105K3RAC?qs=ycRbFa0SLRQpHhAu2LUs4g%3D%3D" xr:uid="{0FCC25C3-D9DF-4B4B-BCCA-759AE08E3E7C}"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://www.mouser.es/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{A4366032-B6AD-4B6E-86E4-651A6FB94739}"/>
+    <hyperlink ref="E23" r:id="rId17" display="https://www.mouser.es/ProductDetail/Wurth-Elektronik/860010372004?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6V%2FBdkDX4IUo%3D" xr:uid="{F6A9C276-C183-40D6-BCE3-88BD25B8FE21}"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://www.we-online.com/components/products/datasheet/860010372004.pdf" xr:uid="{64F47EB5-5E4F-4456-9BA1-C34A10157607}"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://eu.mouser.com/ProductDetail/Wurth-Elektronik/865080540002?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6puNwow3HMPo%3D" xr:uid="{533CB1B0-DAA5-419A-95D2-3F13D2CD595B}"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://www.we-online.com/components/products/datasheet/865080540002.pdf" xr:uid="{B821F353-7CE6-48D6-94F5-881014D70828}"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://eu.mouser.com/ProductDetail/KYOCERA-AVX/KAM31BR81H103KT?qs=Jm2GQyTW%2FbjzijSUJGW%2FJA%3D%3D" xr:uid="{FCBCC094-A86A-46A6-A04F-8AB770EF6DE4}"/>
+    <hyperlink ref="D21" r:id="rId22" display="https://eu.mouser.com/datasheet/2/40/AutoMLCCKAM-3216307.pdf" xr:uid="{1DDA3BEE-8BEB-4DE8-9F38-782C4EF1D470}"/>
+    <hyperlink ref="E20" r:id="rId23" display="https://eu.mouser.com/ProductDetail/Chemi-Con/KTS500B226M76N0T00?qs=yFwz03cOJpkGGSneI4ka0Q%3D%3D" xr:uid="{F1403E85-644F-4A09-AABD-730E2BD5559C}"/>
+    <hyperlink ref="D20" r:id="rId24" display="https://eu.mouser.com/datasheet/2/420/nipc_s_a0010886389_1-2285932.pdf" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
+    <hyperlink ref="E19" r:id="rId25" display="https://eu.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B226KPHNNWE?qs=xZ%2FP%252Ba9zWqYr7HUxVtf3Yw%3D%3D" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
+    <hyperlink ref="D19" r:id="rId26" display="https://eu.mouser.com/datasheet/2/585/MLCC-1837944.pdf" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
+    <hyperlink ref="E18" r:id="rId27" display="https://eu.mouser.com/ProductDetail/KEMET/T491A105K020AT4360?qs=sGAEpiMZZMsh%252B1woXyUXjyEnHz%2F1kG1y%2Fw9r1ZBsrUs%3D" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
+    <hyperlink ref="D18" r:id="rId28" display="https://eu.mouser.com/datasheet/2/447/KEM_T2005_T491-3316937.pdf" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
+    <hyperlink ref="E17" r:id="rId29" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P783-Q24-S3-S?qs=sPbYRqrBIVl7G8uy4wpmww%3D%3D" xr:uid="{5034372E-BC57-4295-8C83-857784642725}"/>
+    <hyperlink ref="D17" r:id="rId30" display="https://eu.mouser.com/datasheet/2/670/p783_s-1889817.pdf" xr:uid="{A9529BFF-D871-4C13-8588-2BD41905549C}"/>
+    <hyperlink ref="E16" r:id="rId31" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P7803-2000R-S?qs=vvQtp7zwQdObalelOc2Obw%3D%3D" xr:uid="{C2C8252F-E7E4-486F-B1F3-C782844ADC09}"/>
+    <hyperlink ref="D16" r:id="rId32" display="https://eu.mouser.com/datasheet/2/670/p78_2000r_s-3070500.pdf" xr:uid="{575E9712-908F-4D76-9794-3508D883A1FB}"/>
+    <hyperlink ref="E15" r:id="rId33" display="https://www.digikey.es/en/products/detail/panasonic-electronic-components/ESE-22MV21T/1245478" xr:uid="{1099D7E3-52BC-48BC-933F-8C0F98525346}"/>
+    <hyperlink ref="D15" r:id="rId34" display="https://industrial.panasonic.com/cdbs/www-data/pdf/ATB0000/ATB0000C12.pdf" xr:uid="{5F4EE5B4-26DE-4411-8999-75C0DA7655C7}"/>
+    <hyperlink ref="E14" r:id="rId35" display="https://www.transmotec.com/product/dla-12-5-a-50-pot-ip65/" xr:uid="{BECB3E5C-6E02-4679-BC41-66837FBB6182}"/>
+    <hyperlink ref="D14" r:id="rId36" display="https://www.transmotec.com/Download/Catalog/Transmotec-EN-DLA-2022.pdf" xr:uid="{DBBD1B73-3BF9-41B5-ADA0-27797FA69C65}"/>
+    <hyperlink ref="E13" r:id="rId37" display="https://www.digikey.es/en/products/detail/dlp-design-inc/DLP-RFID2/3770244" xr:uid="{D2798009-9944-41A4-9B3D-A0230B356EDE}"/>
+    <hyperlink ref="D13" r:id="rId38" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5656/DLP-RFID2%28D%29-V2.pdf" xr:uid="{D2B4A64B-5FB8-4162-9305-21CE0BF83744}"/>
+    <hyperlink ref="E12" r:id="rId39" display="https://eu.mouser.com/ProductDetail/WeEn-Semiconductors/BYV10MX-600PQ?qs=QNEnbhJQKvYwaGjd%2F4%252BPWg%3D%3D" xr:uid="{2C07A25C-BDB7-45D5-B385-102D04297979}"/>
+    <hyperlink ref="D12" r:id="rId40" display="https://eu.mouser.com/datasheet/2/848/BYV10MX_600P-2401273.pdf" xr:uid="{66A8F858-446A-4571-882A-468093586CEA}"/>
+    <hyperlink ref="E11" r:id="rId41" display="https://eu.mouser.com/ProductDetail/Diodes-Incorporated/DDZ9699T-7?qs=mQbszxtPdlOBwg08InvD3Q%3D%3D" xr:uid="{8D1DFAF5-5599-444E-9969-36F8DB7A95D1}"/>
+    <hyperlink ref="D11" r:id="rId42" display="https://eu.mouser.com/datasheet/2/115/DIOD_S_A0003550665_1-2542209.pdf" xr:uid="{F6538011-E1AE-4C68-B1F2-EE1AC604FC86}"/>
+    <hyperlink ref="E10" r:id="rId43" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TMCS1123B2AQDVGR?qs=sGAEpiMZZMsPDRSCoHb1X5I%2FjBVAAn8DJGrzHYBTAmBFitJQJPL%2Fbw%3D%3D" xr:uid="{46D5EF1D-824D-444B-B662-7B00E044AE73}"/>
+    <hyperlink ref="D10" r:id="rId44" display="https://www.ti.com/lit/ds/symlink/tmcs1123.pdf?ts=1711707167099&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTMCS1123%253Futm_source%253Dgoogle%2526utm_medium%253Dcpc%2526utm_campaign%253Dasc-null-null-GPN_EN-cpc-pf-google-wwe_cons%2526utm_content%253DTMCS1123%2526ds_k%253DTMCS1123%2526DCM%253Dyes%2526gad_source%253D1%2526gclid%253DEAIaIQobChMIrdeOip6ZhQMVVSitBh03AwOFEAAYAiAAEgLiCfD_BwE%2526gclsrc%253Daw.ds" xr:uid="{D9CFA107-7C26-4E7A-9C55-1F3291C7142F}"/>
+    <hyperlink ref="E9" r:id="rId45" display="https://www.mouser.es/ProductDetail/Analog-Devices-Maxim-Integrated/MAX22201ATC%2b?qs=stqOd1AaK7%252Bdqi04%2FQHs9Q%3D%3D" xr:uid="{51F98C54-7CA0-49FA-8356-2D3193CDD48A}"/>
+    <hyperlink ref="D9" r:id="rId46" display="https://www.mouser.es/datasheet/2/609/MAX22201_MAX22207-3127854.pdf" xr:uid="{629666F3-4A26-452E-AD59-C00275E54C54}"/>
+    <hyperlink ref="E7" r:id="rId47" display="https://www.mouser.es/ProductDetail/ECS/ECS-3225SMV-080-GP-TR?qs=sGAEpiMZZMtldj7qu1ydrbV2KlGvrVWIvUi3jDw2tLHT0SWfK9heCg%3D%3D" xr:uid="{6DA03D7F-C859-4E92-97B1-5929295CA1C1}"/>
+    <hyperlink ref="D7" r:id="rId48" display="https://www.mouser.es/datasheet/2/122/ECS_3225SMV-1623609.pdf" xr:uid="{C2916E02-F1CB-473D-91D6-5AC4DA0D25C5}"/>
+    <hyperlink ref="E6" r:id="rId49" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TCAN3413DR?qs=sGAEpiMZZMuyKkoWRCJ2WCtyf8MLmt92v%252BoGH2%2F%2FnqAqFeWM6BEVrA%3D%3D" xr:uid="{FC8577AB-10E8-45F3-A4EE-AE09A12E6AAE}"/>
+    <hyperlink ref="D6" r:id="rId50" display="https://www.ti.com/lit/ds/symlink/tcan3414.pdf?ts=1711721678762&amp;ref_url=https%253A%252F%252Fwww.mouser.it%252F" xr:uid="{8BC71C0B-8C31-4D65-A043-9A152E9FC4D8}"/>
+    <hyperlink ref="E5" r:id="rId51" display="https://www.mouser.es/ProductDetail/Nidec-Components/HG37-200-AA-00?qs=Wj%2FVkw3K%252BMBRymxOaiVRvg%3D%3D" xr:uid="{C21388A6-2475-4EFE-BD4C-C0258FE9CD09}"/>
+    <hyperlink ref="D5" r:id="rId52" display="https://www.mouser.es/datasheet/2/972/hg37-2525173.pdf" xr:uid="{DCF6A55D-4B93-4C71-8827-F55E8B5FD1A1}"/>
+    <hyperlink ref="E4" r:id="rId53" display="https://www.digikey.es/en/products/detail/rochester-electronics-llc/LT1528CT-PBF/13481919" xr:uid="{376C3220-DF16-4F6E-AF12-20F002007E42}"/>
+    <hyperlink ref="D4" r:id="rId54" display="https://rocelec.widen.net/view/pdf/nbjrjihvdn/LITCS09222-1.pdf?t.download=true&amp;u=5oefqw" xr:uid="{7D338460-CBA5-4417-B281-6DAF716625ED}"/>
+    <hyperlink ref="E3" r:id="rId55" display="https://www.mouser.es/ProductDetail/Microchip-Technology/PIC32MK0256MCJ048-E-Y8X?qs=vmHwEFxEFR%2FV8wN%2Fdp0noA%3D%3D" xr:uid="{8E6608C9-F0D5-4A88-8253-77AEBEE4BACE}"/>
+    <hyperlink ref="D3" r:id="rId56" display="https://ww1.microchip.com/downloads/aemDocuments/documents/MCU32/ProductDocuments/DataSheets/PIC32MK-General-Purpose-and-Motor-Control-With-CAN-FD-Family-DataSheet-DS60001570D.pdf" xr:uid="{6250C50A-E1B9-447F-89C8-081DB1A26476}"/>
+    <hyperlink ref="D8" r:id="rId57" xr:uid="{E0936839-756F-436D-9384-8570FA0CDEE0}"/>
+    <hyperlink ref="E8" r:id="rId58" xr:uid="{53932EB0-1DEE-4E37-A38D-64E80775301C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
 

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64706CF9-9313-4F21-B33E-EA533105519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D2A99-B907-4CBF-B6E1-C06B1C15B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -397,13 +397,34 @@
   </si>
   <si>
     <t>2,24 €</t>
+  </si>
+  <si>
+    <t>53,48 €</t>
+  </si>
+  <si>
+    <t>3,12 €</t>
+  </si>
+  <si>
+    <t>0,84€</t>
+  </si>
+  <si>
+    <t>0,85 €</t>
+  </si>
+  <si>
+    <t>0,01 €</t>
+  </si>
+  <si>
+    <t>• Producció de 20.000 peces any • Durada del projecte 3 anys • Nom del projecte: el que sigui... • Empresa ACME</t>
+  </si>
+  <si>
+    <t>Criteris 20000u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +462,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -468,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -491,12 +519,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -506,6 +543,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -794,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,9 +912,11 @@
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -901,9 +943,11 @@
       <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -928,11 +972,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -959,9 +1005,11 @@
       <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="5"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -988,9 +1036,11 @@
       <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1017,9 +1067,11 @@
       <c r="G8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1044,11 +1096,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1069,15 +1123,17 @@
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="9" t="s">
         <v>119</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1104,9 +1160,11 @@
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1133,9 +1191,11 @@
       <c r="G12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="5"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1162,9 +1222,11 @@
       <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1185,15 +1247,17 @@
       <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="9" t="s">
         <v>119</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1218,11 +1282,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1249,9 +1315,11 @@
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1272,15 +1340,17 @@
       <c r="E17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1307,9 +1377,11 @@
       <c r="G18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="5"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1336,9 +1408,11 @@
       <c r="G19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1365,9 +1439,11 @@
       <c r="G20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="5"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1394,9 +1470,11 @@
       <c r="G21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
+      <c r="H21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1421,11 +1499,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1450,11 +1530,13 @@
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1479,11 +1561,13 @@
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1510,9 +1594,11 @@
       <c r="G25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1539,9 +1625,11 @@
       <c r="G26" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -1568,9 +1656,11 @@
       <c r="G27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
+      <c r="H27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1597,9 +1687,11 @@
       <c r="G28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="5"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -1626,9 +1718,11 @@
       <c r="G29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
+      <c r="H29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="3"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1655,9 +1749,11 @@
       <c r="G30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
+      <c r="H30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -1684,9 +1780,11 @@
       <c r="G31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1694,7 +1792,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>112</v>
       </c>
@@ -1710,87 +1808,93 @@
       <c r="G35" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I35" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1" display="https://eu.mouser.com/ProductDetail/Royalohm/TC0550D3302T5G?qs=Wj%2FVkw3K%252BMB5M6MpcX7%252Byw%3D%3D" xr:uid="{35EF156D-EF85-443E-A67A-AEA1B4F3B6F9}"/>
-    <hyperlink ref="D31" r:id="rId2" display="https://eu.mouser.com/datasheet/2/1365/Royalohm_09132021_9__Thin_Film_20200106-2580434.pdf" xr:uid="{EDE9AB5B-EFA8-429F-A7F7-11872BAC6D69}"/>
-    <hyperlink ref="E30" r:id="rId3" display="https://eu.mouser.com/ProductDetail/Royalohm/TC0550F1003T5G?qs=Wj%2FVkw3K%252BMBYxpaKle1zIA%3D%3D" xr:uid="{E5037130-3169-46A8-9D96-351467B60F90}"/>
-    <hyperlink ref="D30" r:id="rId4" display="https://eu.mouser.com/datasheet/2/1365/Royalohm_09132021_9__Thin_Film_20200106-2580434.pdf" xr:uid="{E6974C46-C30C-4C69-9AE0-70C75AC53239}"/>
-    <hyperlink ref="E29" r:id="rId5" display="https://eu.mouser.com/ProductDetail/SEI-Stackpole/RNCP0805JTD10K0?qs=IPgv5n7u5QaJFxYpOecM6A%3D%3D" xr:uid="{1DB00E48-F9E1-4958-B810-CDF887F5210D}"/>
-    <hyperlink ref="D29" r:id="rId6" display="https://eu.mouser.com/datasheet/2/385/SEI_rncp-3077653.pdf" xr:uid="{28924AD1-D03B-4DAA-B480-B8D5959A0209}"/>
-    <hyperlink ref="E28" r:id="rId7" display="https://eu.mouser.com/ProductDetail/Royalohm/TC0550F3300T5F?qs=T%252BzbugeAwjgeSBQZlDaTmA%3D%3D" xr:uid="{7D8357F7-2719-42FC-BB28-0E9F424D0A17}"/>
-    <hyperlink ref="D28" r:id="rId8" display="https://eu.mouser.com/datasheet/2/1365/21-3077223.pdf" xr:uid="{91E179AA-0EDF-4678-A53E-D153610EB025}"/>
-    <hyperlink ref="E27" r:id="rId9" display="https://eu.mouser.com/ProductDetail/Royalohm/TC05W8F1001T5G?qs=ST9lo4GX8V0X3zBMraFh1A%3D%3D" xr:uid="{55DDD406-97F6-4BAD-BD53-67F37AAF6659}"/>
-    <hyperlink ref="D27" r:id="rId10" display="https://eu.mouser.com/datasheet/2/1365/21-3077223.pdf" xr:uid="{0B741CC7-C30C-4ADD-8093-89236029C7A1}"/>
-    <hyperlink ref="E26" r:id="rId11" display="https://www.mouser.es/ProductDetail/Royalohm/CQ05WAF1200T5E?qs=sGAEpiMZZMtlubZbdhIBINZaoL9yqB51WBf9LviuJYE%3D" xr:uid="{A1ABE773-664E-4732-86CC-F2749E1E54FE}"/>
-    <hyperlink ref="D26" r:id="rId12" display="https://www.mouser.es/datasheet/2/1365/10-3358738.pdf" xr:uid="{ECDB5A90-F05A-4B09-8298-3593105B2118}"/>
-    <hyperlink ref="E25" r:id="rId13" display="https://eu.mouser.com/ProductDetail/KEMET/C0805C104M5RAC?qs=VOOUd%252Bza08rWzt4y8eXMuQ%3D%3D" xr:uid="{AF7CA242-553D-491B-912A-A6B98FCC6172}"/>
-    <hyperlink ref="D25" r:id="rId14" display="https://eu.mouser.com/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{189FFA01-0511-411E-9C7C-D7425091DD2D}"/>
-    <hyperlink ref="E24" r:id="rId15" display="https://www.mouser.es/ProductDetail/KEMET/C0805C105K3RAC?qs=ycRbFa0SLRQpHhAu2LUs4g%3D%3D" xr:uid="{0FCC25C3-D9DF-4B4B-BCCA-759AE08E3E7C}"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://www.mouser.es/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{A4366032-B6AD-4B6E-86E4-651A6FB94739}"/>
-    <hyperlink ref="E23" r:id="rId17" display="https://www.mouser.es/ProductDetail/Wurth-Elektronik/860010372004?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6V%2FBdkDX4IUo%3D" xr:uid="{F6A9C276-C183-40D6-BCE3-88BD25B8FE21}"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://www.we-online.com/components/products/datasheet/860010372004.pdf" xr:uid="{64F47EB5-5E4F-4456-9BA1-C34A10157607}"/>
-    <hyperlink ref="E22" r:id="rId19" display="https://eu.mouser.com/ProductDetail/Wurth-Elektronik/865080540002?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6puNwow3HMPo%3D" xr:uid="{533CB1B0-DAA5-419A-95D2-3F13D2CD595B}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://www.we-online.com/components/products/datasheet/865080540002.pdf" xr:uid="{B821F353-7CE6-48D6-94F5-881014D70828}"/>
-    <hyperlink ref="E21" r:id="rId21" display="https://eu.mouser.com/ProductDetail/KYOCERA-AVX/KAM31BR81H103KT?qs=Jm2GQyTW%2FbjzijSUJGW%2FJA%3D%3D" xr:uid="{FCBCC094-A86A-46A6-A04F-8AB770EF6DE4}"/>
-    <hyperlink ref="D21" r:id="rId22" display="https://eu.mouser.com/datasheet/2/40/AutoMLCCKAM-3216307.pdf" xr:uid="{1DDA3BEE-8BEB-4DE8-9F38-782C4EF1D470}"/>
-    <hyperlink ref="E20" r:id="rId23" display="https://eu.mouser.com/ProductDetail/Chemi-Con/KTS500B226M76N0T00?qs=yFwz03cOJpkGGSneI4ka0Q%3D%3D" xr:uid="{F1403E85-644F-4A09-AABD-730E2BD5559C}"/>
-    <hyperlink ref="D20" r:id="rId24" display="https://eu.mouser.com/datasheet/2/420/nipc_s_a0010886389_1-2285932.pdf" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
-    <hyperlink ref="E19" r:id="rId25" display="https://eu.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B226KPHNNWE?qs=xZ%2FP%252Ba9zWqYr7HUxVtf3Yw%3D%3D" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
-    <hyperlink ref="D19" r:id="rId26" display="https://eu.mouser.com/datasheet/2/585/MLCC-1837944.pdf" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
-    <hyperlink ref="E18" r:id="rId27" display="https://eu.mouser.com/ProductDetail/KEMET/T491A105K020AT4360?qs=sGAEpiMZZMsh%252B1woXyUXjyEnHz%2F1kG1y%2Fw9r1ZBsrUs%3D" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
-    <hyperlink ref="D18" r:id="rId28" display="https://eu.mouser.com/datasheet/2/447/KEM_T2005_T491-3316937.pdf" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
-    <hyperlink ref="E17" r:id="rId29" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P783-Q24-S3-S?qs=sPbYRqrBIVl7G8uy4wpmww%3D%3D" xr:uid="{5034372E-BC57-4295-8C83-857784642725}"/>
-    <hyperlink ref="D17" r:id="rId30" display="https://eu.mouser.com/datasheet/2/670/p783_s-1889817.pdf" xr:uid="{A9529BFF-D871-4C13-8588-2BD41905549C}"/>
-    <hyperlink ref="E16" r:id="rId31" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P7803-2000R-S?qs=vvQtp7zwQdObalelOc2Obw%3D%3D" xr:uid="{C2C8252F-E7E4-486F-B1F3-C782844ADC09}"/>
-    <hyperlink ref="D16" r:id="rId32" display="https://eu.mouser.com/datasheet/2/670/p78_2000r_s-3070500.pdf" xr:uid="{575E9712-908F-4D76-9794-3508D883A1FB}"/>
-    <hyperlink ref="E15" r:id="rId33" display="https://www.digikey.es/en/products/detail/panasonic-electronic-components/ESE-22MV21T/1245478" xr:uid="{1099D7E3-52BC-48BC-933F-8C0F98525346}"/>
-    <hyperlink ref="D15" r:id="rId34" display="https://industrial.panasonic.com/cdbs/www-data/pdf/ATB0000/ATB0000C12.pdf" xr:uid="{5F4EE5B4-26DE-4411-8999-75C0DA7655C7}"/>
-    <hyperlink ref="E14" r:id="rId35" display="https://www.transmotec.com/product/dla-12-5-a-50-pot-ip65/" xr:uid="{BECB3E5C-6E02-4679-BC41-66837FBB6182}"/>
-    <hyperlink ref="D14" r:id="rId36" display="https://www.transmotec.com/Download/Catalog/Transmotec-EN-DLA-2022.pdf" xr:uid="{DBBD1B73-3BF9-41B5-ADA0-27797FA69C65}"/>
-    <hyperlink ref="E13" r:id="rId37" display="https://www.digikey.es/en/products/detail/dlp-design-inc/DLP-RFID2/3770244" xr:uid="{D2798009-9944-41A4-9B3D-A0230B356EDE}"/>
-    <hyperlink ref="D13" r:id="rId38" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5656/DLP-RFID2%28D%29-V2.pdf" xr:uid="{D2B4A64B-5FB8-4162-9305-21CE0BF83744}"/>
-    <hyperlink ref="E12" r:id="rId39" display="https://eu.mouser.com/ProductDetail/WeEn-Semiconductors/BYV10MX-600PQ?qs=QNEnbhJQKvYwaGjd%2F4%252BPWg%3D%3D" xr:uid="{2C07A25C-BDB7-45D5-B385-102D04297979}"/>
-    <hyperlink ref="D12" r:id="rId40" display="https://eu.mouser.com/datasheet/2/848/BYV10MX_600P-2401273.pdf" xr:uid="{66A8F858-446A-4571-882A-468093586CEA}"/>
-    <hyperlink ref="E11" r:id="rId41" display="https://eu.mouser.com/ProductDetail/Diodes-Incorporated/DDZ9699T-7?qs=mQbszxtPdlOBwg08InvD3Q%3D%3D" xr:uid="{8D1DFAF5-5599-444E-9969-36F8DB7A95D1}"/>
-    <hyperlink ref="D11" r:id="rId42" display="https://eu.mouser.com/datasheet/2/115/DIOD_S_A0003550665_1-2542209.pdf" xr:uid="{F6538011-E1AE-4C68-B1F2-EE1AC604FC86}"/>
-    <hyperlink ref="E10" r:id="rId43" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TMCS1123B2AQDVGR?qs=sGAEpiMZZMsPDRSCoHb1X5I%2FjBVAAn8DJGrzHYBTAmBFitJQJPL%2Fbw%3D%3D" xr:uid="{46D5EF1D-824D-444B-B662-7B00E044AE73}"/>
-    <hyperlink ref="D10" r:id="rId44" display="https://www.ti.com/lit/ds/symlink/tmcs1123.pdf?ts=1711707167099&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTMCS1123%253Futm_source%253Dgoogle%2526utm_medium%253Dcpc%2526utm_campaign%253Dasc-null-null-GPN_EN-cpc-pf-google-wwe_cons%2526utm_content%253DTMCS1123%2526ds_k%253DTMCS1123%2526DCM%253Dyes%2526gad_source%253D1%2526gclid%253DEAIaIQobChMIrdeOip6ZhQMVVSitBh03AwOFEAAYAiAAEgLiCfD_BwE%2526gclsrc%253Daw.ds" xr:uid="{D9CFA107-7C26-4E7A-9C55-1F3291C7142F}"/>
-    <hyperlink ref="E9" r:id="rId45" display="https://www.mouser.es/ProductDetail/Analog-Devices-Maxim-Integrated/MAX22201ATC%2b?qs=stqOd1AaK7%252Bdqi04%2FQHs9Q%3D%3D" xr:uid="{51F98C54-7CA0-49FA-8356-2D3193CDD48A}"/>
-    <hyperlink ref="D9" r:id="rId46" display="https://www.mouser.es/datasheet/2/609/MAX22201_MAX22207-3127854.pdf" xr:uid="{629666F3-4A26-452E-AD59-C00275E54C54}"/>
-    <hyperlink ref="E7" r:id="rId47" display="https://www.mouser.es/ProductDetail/ECS/ECS-3225SMV-080-GP-TR?qs=sGAEpiMZZMtldj7qu1ydrbV2KlGvrVWIvUi3jDw2tLHT0SWfK9heCg%3D%3D" xr:uid="{6DA03D7F-C859-4E92-97B1-5929295CA1C1}"/>
-    <hyperlink ref="D7" r:id="rId48" display="https://www.mouser.es/datasheet/2/122/ECS_3225SMV-1623609.pdf" xr:uid="{C2916E02-F1CB-473D-91D6-5AC4DA0D25C5}"/>
-    <hyperlink ref="E6" r:id="rId49" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TCAN3413DR?qs=sGAEpiMZZMuyKkoWRCJ2WCtyf8MLmt92v%252BoGH2%2F%2FnqAqFeWM6BEVrA%3D%3D" xr:uid="{FC8577AB-10E8-45F3-A4EE-AE09A12E6AAE}"/>
-    <hyperlink ref="D6" r:id="rId50" display="https://www.ti.com/lit/ds/symlink/tcan3414.pdf?ts=1711721678762&amp;ref_url=https%253A%252F%252Fwww.mouser.it%252F" xr:uid="{8BC71C0B-8C31-4D65-A043-9A152E9FC4D8}"/>
-    <hyperlink ref="E5" r:id="rId51" display="https://www.mouser.es/ProductDetail/Nidec-Components/HG37-200-AA-00?qs=Wj%2FVkw3K%252BMBRymxOaiVRvg%3D%3D" xr:uid="{C21388A6-2475-4EFE-BD4C-C0258FE9CD09}"/>
-    <hyperlink ref="D5" r:id="rId52" display="https://www.mouser.es/datasheet/2/972/hg37-2525173.pdf" xr:uid="{DCF6A55D-4B93-4C71-8827-F55E8B5FD1A1}"/>
-    <hyperlink ref="E4" r:id="rId53" display="https://www.digikey.es/en/products/detail/rochester-electronics-llc/LT1528CT-PBF/13481919" xr:uid="{376C3220-DF16-4F6E-AF12-20F002007E42}"/>
-    <hyperlink ref="D4" r:id="rId54" display="https://rocelec.widen.net/view/pdf/nbjrjihvdn/LITCS09222-1.pdf?t.download=true&amp;u=5oefqw" xr:uid="{7D338460-CBA5-4417-B281-6DAF716625ED}"/>
-    <hyperlink ref="E3" r:id="rId55" display="https://www.mouser.es/ProductDetail/Microchip-Technology/PIC32MK0256MCJ048-E-Y8X?qs=vmHwEFxEFR%2FV8wN%2Fdp0noA%3D%3D" xr:uid="{8E6608C9-F0D5-4A88-8253-77AEBEE4BACE}"/>
-    <hyperlink ref="D3" r:id="rId56" display="https://ww1.microchip.com/downloads/aemDocuments/documents/MCU32/ProductDocuments/DataSheets/PIC32MK-General-Purpose-and-Motor-Control-With-CAN-FD-Family-DataSheet-DS60001570D.pdf" xr:uid="{6250C50A-E1B9-447F-89C8-081DB1A26476}"/>
-    <hyperlink ref="D8" r:id="rId57" xr:uid="{E0936839-756F-436D-9384-8570FA0CDEE0}"/>
-    <hyperlink ref="E8" r:id="rId58" xr:uid="{53932EB0-1DEE-4E37-A38D-64E80775301C}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{EDE9AB5B-EFA8-429F-A7F7-11872BAC6D69}"/>
+    <hyperlink ref="E30" r:id="rId2" xr:uid="{E5037130-3169-46A8-9D96-351467B60F90}"/>
+    <hyperlink ref="D30" r:id="rId3" xr:uid="{E6974C46-C30C-4C69-9AE0-70C75AC53239}"/>
+    <hyperlink ref="E29" r:id="rId4" xr:uid="{1DB00E48-F9E1-4958-B810-CDF887F5210D}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{28924AD1-D03B-4DAA-B480-B8D5959A0209}"/>
+    <hyperlink ref="E28" r:id="rId6" xr:uid="{7D8357F7-2719-42FC-BB28-0E9F424D0A17}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{91E179AA-0EDF-4678-A53E-D153610EB025}"/>
+    <hyperlink ref="E27" r:id="rId8" xr:uid="{55DDD406-97F6-4BAD-BD53-67F37AAF6659}"/>
+    <hyperlink ref="D27" r:id="rId9" xr:uid="{0B741CC7-C30C-4ADD-8093-89236029C7A1}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{A1ABE773-664E-4732-86CC-F2749E1E54FE}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{ECDB5A90-F05A-4B09-8298-3593105B2118}"/>
+    <hyperlink ref="E25" r:id="rId12" display="https://eu.mouser.com/ProductDetail/KEMET/C0805C104M5RAC?qs=VOOUd%252Bza08rWzt4y8eXMuQ%3D%3D" xr:uid="{AF7CA242-553D-491B-912A-A6B98FCC6172}"/>
+    <hyperlink ref="D25" r:id="rId13" display="https://eu.mouser.com/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{189FFA01-0511-411E-9C7C-D7425091DD2D}"/>
+    <hyperlink ref="E24" r:id="rId14" display="https://www.mouser.es/ProductDetail/KEMET/C0805C105K3RAC?qs=ycRbFa0SLRQpHhAu2LUs4g%3D%3D" xr:uid="{0FCC25C3-D9DF-4B4B-BCCA-759AE08E3E7C}"/>
+    <hyperlink ref="D24" r:id="rId15" display="https://www.mouser.es/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{A4366032-B6AD-4B6E-86E4-651A6FB94739}"/>
+    <hyperlink ref="E23" r:id="rId16" display="https://www.mouser.es/ProductDetail/Wurth-Elektronik/860010372004?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6V%2FBdkDX4IUo%3D" xr:uid="{F6A9C276-C183-40D6-BCE3-88BD25B8FE21}"/>
+    <hyperlink ref="D23" r:id="rId17" display="https://www.we-online.com/components/products/datasheet/860010372004.pdf" xr:uid="{64F47EB5-5E4F-4456-9BA1-C34A10157607}"/>
+    <hyperlink ref="E22" r:id="rId18" display="https://eu.mouser.com/ProductDetail/Wurth-Elektronik/865080540002?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6puNwow3HMPo%3D" xr:uid="{533CB1B0-DAA5-419A-95D2-3F13D2CD595B}"/>
+    <hyperlink ref="D22" r:id="rId19" display="https://www.we-online.com/components/products/datasheet/865080540002.pdf" xr:uid="{B821F353-7CE6-48D6-94F5-881014D70828}"/>
+    <hyperlink ref="E21" r:id="rId20" display="https://eu.mouser.com/ProductDetail/KYOCERA-AVX/KAM31BR81H103KT?qs=Jm2GQyTW%2FbjzijSUJGW%2FJA%3D%3D" xr:uid="{FCBCC094-A86A-46A6-A04F-8AB770EF6DE4}"/>
+    <hyperlink ref="D21" r:id="rId21" display="https://eu.mouser.com/datasheet/2/40/AutoMLCCKAM-3216307.pdf" xr:uid="{1DDA3BEE-8BEB-4DE8-9F38-782C4EF1D470}"/>
+    <hyperlink ref="E20" r:id="rId22" display="https://eu.mouser.com/ProductDetail/Chemi-Con/KTS500B226M76N0T00?qs=yFwz03cOJpkGGSneI4ka0Q%3D%3D" xr:uid="{F1403E85-644F-4A09-AABD-730E2BD5559C}"/>
+    <hyperlink ref="D20" r:id="rId23" display="https://eu.mouser.com/datasheet/2/420/nipc_s_a0010886389_1-2285932.pdf" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
+    <hyperlink ref="E19" r:id="rId24" display="https://eu.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B226KPHNNWE?qs=xZ%2FP%252Ba9zWqYr7HUxVtf3Yw%3D%3D" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
+    <hyperlink ref="D19" r:id="rId25" display="https://eu.mouser.com/datasheet/2/585/MLCC-1837944.pdf" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
+    <hyperlink ref="E18" r:id="rId26" display="https://eu.mouser.com/ProductDetail/KEMET/T491A105K020AT4360?qs=sGAEpiMZZMsh%252B1woXyUXjyEnHz%2F1kG1y%2Fw9r1ZBsrUs%3D" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
+    <hyperlink ref="D18" r:id="rId27" display="https://eu.mouser.com/datasheet/2/447/KEM_T2005_T491-3316937.pdf" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
+    <hyperlink ref="E17" r:id="rId28" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P783-Q24-S3-S?qs=sPbYRqrBIVl7G8uy4wpmww%3D%3D" xr:uid="{5034372E-BC57-4295-8C83-857784642725}"/>
+    <hyperlink ref="D17" r:id="rId29" display="https://eu.mouser.com/datasheet/2/670/p783_s-1889817.pdf" xr:uid="{A9529BFF-D871-4C13-8588-2BD41905549C}"/>
+    <hyperlink ref="E16" r:id="rId30" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P7803-2000R-S?qs=vvQtp7zwQdObalelOc2Obw%3D%3D" xr:uid="{C2C8252F-E7E4-486F-B1F3-C782844ADC09}"/>
+    <hyperlink ref="D16" r:id="rId31" display="https://eu.mouser.com/datasheet/2/670/p78_2000r_s-3070500.pdf" xr:uid="{575E9712-908F-4D76-9794-3508D883A1FB}"/>
+    <hyperlink ref="E15" r:id="rId32" display="https://www.digikey.es/en/products/detail/panasonic-electronic-components/ESE-22MV21T/1245478" xr:uid="{1099D7E3-52BC-48BC-933F-8C0F98525346}"/>
+    <hyperlink ref="D15" r:id="rId33" display="https://industrial.panasonic.com/cdbs/www-data/pdf/ATB0000/ATB0000C12.pdf" xr:uid="{5F4EE5B4-26DE-4411-8999-75C0DA7655C7}"/>
+    <hyperlink ref="E14" r:id="rId34" display="https://www.transmotec.com/product/dla-12-5-a-50-pot-ip65/" xr:uid="{BECB3E5C-6E02-4679-BC41-66837FBB6182}"/>
+    <hyperlink ref="D14" r:id="rId35" display="https://www.transmotec.com/Download/Catalog/Transmotec-EN-DLA-2022.pdf" xr:uid="{DBBD1B73-3BF9-41B5-ADA0-27797FA69C65}"/>
+    <hyperlink ref="E13" r:id="rId36" display="https://www.digikey.es/en/products/detail/dlp-design-inc/DLP-RFID2/3770244" xr:uid="{D2798009-9944-41A4-9B3D-A0230B356EDE}"/>
+    <hyperlink ref="D13" r:id="rId37" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5656/DLP-RFID2%28D%29-V2.pdf" xr:uid="{D2B4A64B-5FB8-4162-9305-21CE0BF83744}"/>
+    <hyperlink ref="E12" r:id="rId38" display="https://eu.mouser.com/ProductDetail/WeEn-Semiconductors/BYV10MX-600PQ?qs=QNEnbhJQKvYwaGjd%2F4%252BPWg%3D%3D" xr:uid="{2C07A25C-BDB7-45D5-B385-102D04297979}"/>
+    <hyperlink ref="D12" r:id="rId39" display="https://eu.mouser.com/datasheet/2/848/BYV10MX_600P-2401273.pdf" xr:uid="{66A8F858-446A-4571-882A-468093586CEA}"/>
+    <hyperlink ref="E11" r:id="rId40" display="https://eu.mouser.com/ProductDetail/Diodes-Incorporated/DDZ9699T-7?qs=mQbszxtPdlOBwg08InvD3Q%3D%3D" xr:uid="{8D1DFAF5-5599-444E-9969-36F8DB7A95D1}"/>
+    <hyperlink ref="D11" r:id="rId41" display="https://eu.mouser.com/datasheet/2/115/DIOD_S_A0003550665_1-2542209.pdf" xr:uid="{F6538011-E1AE-4C68-B1F2-EE1AC604FC86}"/>
+    <hyperlink ref="E10" r:id="rId42" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TMCS1123B2AQDVGR?qs=sGAEpiMZZMsPDRSCoHb1X5I%2FjBVAAn8DJGrzHYBTAmBFitJQJPL%2Fbw%3D%3D" xr:uid="{46D5EF1D-824D-444B-B662-7B00E044AE73}"/>
+    <hyperlink ref="D10" r:id="rId43" display="https://www.ti.com/lit/ds/symlink/tmcs1123.pdf?ts=1711707167099&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTMCS1123%253Futm_source%253Dgoogle%2526utm_medium%253Dcpc%2526utm_campaign%253Dasc-null-null-GPN_EN-cpc-pf-google-wwe_cons%2526utm_content%253DTMCS1123%2526ds_k%253DTMCS1123%2526DCM%253Dyes%2526gad_source%253D1%2526gclid%253DEAIaIQobChMIrdeOip6ZhQMVVSitBh03AwOFEAAYAiAAEgLiCfD_BwE%2526gclsrc%253Daw.ds" xr:uid="{D9CFA107-7C26-4E7A-9C55-1F3291C7142F}"/>
+    <hyperlink ref="E9" r:id="rId44" display="https://www.mouser.es/ProductDetail/Analog-Devices-Maxim-Integrated/MAX22201ATC%2b?qs=stqOd1AaK7%252Bdqi04%2FQHs9Q%3D%3D" xr:uid="{51F98C54-7CA0-49FA-8356-2D3193CDD48A}"/>
+    <hyperlink ref="D9" r:id="rId45" display="https://www.mouser.es/datasheet/2/609/MAX22201_MAX22207-3127854.pdf" xr:uid="{629666F3-4A26-452E-AD59-C00275E54C54}"/>
+    <hyperlink ref="E7" r:id="rId46" display="https://www.mouser.es/ProductDetail/ECS/ECS-3225SMV-080-GP-TR?qs=sGAEpiMZZMtldj7qu1ydrbV2KlGvrVWIvUi3jDw2tLHT0SWfK9heCg%3D%3D" xr:uid="{6DA03D7F-C859-4E92-97B1-5929295CA1C1}"/>
+    <hyperlink ref="D7" r:id="rId47" display="https://www.mouser.es/datasheet/2/122/ECS_3225SMV-1623609.pdf" xr:uid="{C2916E02-F1CB-473D-91D6-5AC4DA0D25C5}"/>
+    <hyperlink ref="E6" r:id="rId48" display="https://www.mouser.es/ProductDetail/Texas-Instruments/TCAN3413DR?qs=sGAEpiMZZMuyKkoWRCJ2WCtyf8MLmt92v%252BoGH2%2F%2FnqAqFeWM6BEVrA%3D%3D" xr:uid="{FC8577AB-10E8-45F3-A4EE-AE09A12E6AAE}"/>
+    <hyperlink ref="D6" r:id="rId49" display="https://www.ti.com/lit/ds/symlink/tcan3414.pdf?ts=1711721678762&amp;ref_url=https%253A%252F%252Fwww.mouser.it%252F" xr:uid="{8BC71C0B-8C31-4D65-A043-9A152E9FC4D8}"/>
+    <hyperlink ref="E5" r:id="rId50" display="https://www.mouser.es/ProductDetail/Nidec-Components/HG37-200-AA-00?qs=Wj%2FVkw3K%252BMBRymxOaiVRvg%3D%3D" xr:uid="{C21388A6-2475-4EFE-BD4C-C0258FE9CD09}"/>
+    <hyperlink ref="D5" r:id="rId51" display="https://www.mouser.es/datasheet/2/972/hg37-2525173.pdf" xr:uid="{DCF6A55D-4B93-4C71-8827-F55E8B5FD1A1}"/>
+    <hyperlink ref="E4" r:id="rId52" display="https://www.digikey.es/en/products/detail/rochester-electronics-llc/LT1528CT-PBF/13481919" xr:uid="{376C3220-DF16-4F6E-AF12-20F002007E42}"/>
+    <hyperlink ref="D4" r:id="rId53" display="https://rocelec.widen.net/view/pdf/nbjrjihvdn/LITCS09222-1.pdf?t.download=true&amp;u=5oefqw" xr:uid="{7D338460-CBA5-4417-B281-6DAF716625ED}"/>
+    <hyperlink ref="E3" r:id="rId54" display="https://www.mouser.es/ProductDetail/Microchip-Technology/PIC32MK0256MCJ048-E-Y8X?qs=vmHwEFxEFR%2FV8wN%2Fdp0noA%3D%3D" xr:uid="{8E6608C9-F0D5-4A88-8253-77AEBEE4BACE}"/>
+    <hyperlink ref="D3" r:id="rId55" display="https://ww1.microchip.com/downloads/aemDocuments/documents/MCU32/ProductDocuments/DataSheets/PIC32MK-General-Purpose-and-Motor-Control-With-CAN-FD-Family-DataSheet-DS60001570D.pdf" xr:uid="{6250C50A-E1B9-447F-89C8-081DB1A26476}"/>
+    <hyperlink ref="D8" r:id="rId56" xr:uid="{E0936839-756F-436D-9384-8570FA0CDEE0}"/>
+    <hyperlink ref="E8" r:id="rId57" xr:uid="{53932EB0-1DEE-4E37-A38D-64E80775301C}"/>
+    <hyperlink ref="E31" r:id="rId58" xr:uid="{E9A2EC3C-F40D-47B8-A768-1C800D200C24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
@@ -1798,6 +1902,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ED4E95E98BE39645B2A5122B59228C1C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="befa2a1b9a24cffd904810867b8b238f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="289a0874-0c95-4191-841a-e39351615097" xmlns:ns4="2815469b-4fcf-457f-81f1-22ea46bc5ebe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b584bc5519d0f097e66008559945f81" ns3:_="" ns4:_="">
     <xsd:import namespace="289a0874-0c95-4191-841a-e39351615097"/>
@@ -2026,14 +2138,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2044,6 +2148,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD36479-96DD-494E-99AD-96D567315D91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2062,23 +2183,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
   <ds:schemaRefs>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D2A99-B907-4CBF-B6E1-C06B1C15B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9FC2F-A3EB-4262-9276-A1CA26B397D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -105,24 +105,6 @@
     <t>7,37 €</t>
   </si>
   <si>
-    <t>5,75 €</t>
-  </si>
-  <si>
-    <t>26,74 €</t>
-  </si>
-  <si>
-    <t>2,41 €</t>
-  </si>
-  <si>
-    <t>1,92 €</t>
-  </si>
-  <si>
-    <t>1,56 €</t>
-  </si>
-  <si>
-    <t>5,63 €</t>
-  </si>
-  <si>
     <t>Zener 12V (150MW)</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>zener</t>
   </si>
   <si>
-    <t>0,41 €</t>
-  </si>
-  <si>
     <t>Díode</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>diode</t>
   </si>
   <si>
-    <t>0,54 €</t>
-  </si>
-  <si>
     <t>RFID</t>
   </si>
   <si>
@@ -156,9 +132,6 @@
     <t>rfid</t>
   </si>
   <si>
-    <t>35,04 €</t>
-  </si>
-  <si>
     <t>Motor lineal (150N, 2A) (opc)</t>
   </si>
   <si>
@@ -171,9 +144,6 @@
     <t>Transmotec</t>
   </si>
   <si>
-    <t>303,5 €</t>
-  </si>
-  <si>
     <t>Final de Carrera (5V)</t>
   </si>
   <si>
@@ -183,9 +153,6 @@
     <t>Final-Carrera</t>
   </si>
   <si>
-    <t>0,42 €</t>
-  </si>
-  <si>
     <t>DC/DC 5V (2A, +/-49.5mV)</t>
   </si>
   <si>
@@ -195,9 +162,6 @@
     <t>dcdc2A</t>
   </si>
   <si>
-    <t>5,53 €</t>
-  </si>
-  <si>
     <t>DC/DC 3.3V (3A, +/-33.3mV)</t>
   </si>
   <si>
@@ -207,9 +171,6 @@
     <t>dcdc3A</t>
   </si>
   <si>
-    <t>15,07 €</t>
-  </si>
-  <si>
     <t>C Tan 1u 20V 3216-18</t>
   </si>
   <si>
@@ -219,21 +180,12 @@
     <t>ctant1u</t>
   </si>
   <si>
-    <t>0,07 €</t>
-  </si>
-  <si>
     <t>C Cer 22u 10V 1206</t>
   </si>
   <si>
-    <t>CL31B226KPHNNWE</t>
-  </si>
-  <si>
     <t>cer22u</t>
   </si>
   <si>
-    <t>0,086 €</t>
-  </si>
-  <si>
     <t>C Cer 22u 50V</t>
   </si>
   <si>
@@ -243,9 +195,6 @@
     <t>ccer22u50v</t>
   </si>
   <si>
-    <t>3,58 €</t>
-  </si>
-  <si>
     <t>C Cer 10n 25V 1206</t>
   </si>
   <si>
@@ -255,51 +204,21 @@
     <t>ccer10n50v</t>
   </si>
   <si>
-    <t>0,28 €</t>
-  </si>
-  <si>
     <t>C Ele 4.7u 35V</t>
   </si>
   <si>
     <t>cele4.7u</t>
   </si>
   <si>
-    <t>0,17 €</t>
-  </si>
-  <si>
     <t>C Ele 47u 16V</t>
   </si>
   <si>
-    <t>cele74u</t>
-  </si>
-  <si>
-    <t>0,09 €</t>
-  </si>
-  <si>
     <t>C Cer 1u 25V 0805</t>
   </si>
   <si>
-    <t>C0805C105K3RAC</t>
-  </si>
-  <si>
     <t>cer1u25v</t>
   </si>
   <si>
-    <t>0,021 €</t>
-  </si>
-  <si>
-    <t>C Cer 0.1u 50V 0805</t>
-  </si>
-  <si>
-    <t>C0805C104M5RAC</t>
-  </si>
-  <si>
-    <t>cer100n0805</t>
-  </si>
-  <si>
-    <t>0,008 €</t>
-  </si>
-  <si>
     <t>R 120 125mW 0805</t>
   </si>
   <si>
@@ -309,9 +228,6 @@
     <t>r120</t>
   </si>
   <si>
-    <t>0,002 €</t>
-  </si>
-  <si>
     <t>R 1k 125mW 0805</t>
   </si>
   <si>
@@ -321,9 +237,6 @@
     <t>r1k</t>
   </si>
   <si>
-    <t>0,007 €</t>
-  </si>
-  <si>
     <t>R 330 125mW 0805</t>
   </si>
   <si>
@@ -381,9 +294,6 @@
     <t>Unity price</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>not used</t>
   </si>
   <si>
@@ -396,28 +306,133 @@
     <t>Preu unitari PCB</t>
   </si>
   <si>
-    <t>2,24 €</t>
-  </si>
-  <si>
-    <t>53,48 €</t>
-  </si>
-  <si>
-    <t>3,12 €</t>
-  </si>
-  <si>
-    <t>0,84€</t>
-  </si>
-  <si>
-    <t>0,85 €</t>
-  </si>
-  <si>
-    <t>0,01 €</t>
-  </si>
-  <si>
     <t>• Producció de 20.000 peces any • Durada del projecte 3 anys • Nom del projecte: el que sigui... • Empresa ACME</t>
   </si>
   <si>
     <t>Criteris 20000u</t>
+  </si>
+  <si>
+    <t>C Cer 0.1u 50V 0402</t>
+  </si>
+  <si>
+    <t>cer100n0402</t>
+  </si>
+  <si>
+    <t>cele47u</t>
+  </si>
+  <si>
+    <t>0402X7R104KT2AT</t>
+  </si>
+  <si>
+    <t>VJ0805Y104JXXAT</t>
+  </si>
+  <si>
+    <t>GRM219R6YA475MA73D</t>
+  </si>
+  <si>
+    <t>C1206C226M8PAC</t>
+  </si>
+  <si>
+    <t>73,70 €</t>
+  </si>
+  <si>
+    <t>24,31 €</t>
+  </si>
+  <si>
+    <t>2,17 €</t>
+  </si>
+  <si>
+    <t>21,70 €</t>
+  </si>
+  <si>
+    <t>Units/PCB</t>
+  </si>
+  <si>
+    <t>486,2 €</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,61 €	</t>
+  </si>
+  <si>
+    <t>16,10 €</t>
+  </si>
+  <si>
+    <t>5,38 €</t>
+  </si>
+  <si>
+    <t>53,80 €</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,457 €	</t>
+  </si>
+  <si>
+    <t>4,57 €</t>
+  </si>
+  <si>
+    <t>0,278 €</t>
+  </si>
+  <si>
+    <t>2,78 €</t>
+  </si>
+  <si>
+    <t>0,27 €</t>
+  </si>
+  <si>
+    <t>0,027 €</t>
+  </si>
+  <si>
+    <t>0,165 €</t>
+  </si>
+  <si>
+    <t>1,65 €</t>
+  </si>
+  <si>
+    <t>0,08 €</t>
+  </si>
+  <si>
+    <t>0,80 €</t>
+  </si>
+  <si>
+    <t>0,195 €</t>
+  </si>
+  <si>
+    <t>1,95 €</t>
+  </si>
+  <si>
+    <t>0,222 €</t>
+  </si>
+  <si>
+    <t>2,22 €</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,093 €	</t>
+  </si>
+  <si>
+    <t>0,93</t>
+  </si>
+  <si>
+    <t>0,091 €</t>
+  </si>
+  <si>
+    <t>0,91 €</t>
+  </si>
+  <si>
+    <t>0,187 €</t>
+  </si>
+  <si>
+    <t>1,87 €</t>
+  </si>
+  <si>
+    <t>2,99 €</t>
+  </si>
+  <si>
+    <t>29,90 €</t>
+  </si>
+  <si>
+    <t>0,276 €</t>
+  </si>
+  <si>
+    <t>2,76 €</t>
   </si>
 </sst>
 </file>
@@ -470,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -546,6 +567,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -832,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P37"/>
+  <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,9 +874,9 @@
     <col min="8" max="18" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -860,40 +888,34 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -910,52 +932,44 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -972,21 +986,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1002,84 +1014,70 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
+      <c r="G6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1096,21 +1094,19 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1124,32 +1120,26 @@
         <v>8</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>8</v>
@@ -1158,29 +1148,27 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>8</v>
@@ -1188,30 +1176,28 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>39</v>
+      <c r="G12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>24</v>
@@ -1219,61 +1205,49 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>24</v>
@@ -1281,30 +1255,24 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>8</v>
@@ -1312,61 +1280,53 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>56</v>
+      <c r="G16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>8</v>
@@ -1374,61 +1334,53 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>8</v>
@@ -1436,30 +1388,28 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>72</v>
+      <c r="G20" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>8</v>
@@ -1468,60 +1418,56 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="4">
-        <v>865080540002</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>79</v>
+      <c r="G22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2">
         <v>860010372004</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>81</v>
+      <c r="D23" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
@@ -1530,91 +1476,85 @@
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>86</v>
+      <c r="G24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="2">
         <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>8</v>
@@ -1622,30 +1562,28 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>94</v>
+      <c r="G26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>8</v>
@@ -1654,29 +1592,27 @@
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>8</v>
@@ -1684,30 +1620,28 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>98</v>
+      <c r="G28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>8</v>
@@ -1716,29 +1650,27 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>8</v>
@@ -1746,30 +1678,28 @@
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>98</v>
+      <c r="G30" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>8</v>
@@ -1778,43 +1708,41 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -1822,12 +1750,12 @@
       <c r="F36" s="5"/>
       <c r="G36" s="4"/>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -1848,20 +1776,20 @@
     <hyperlink ref="D27" r:id="rId9" xr:uid="{0B741CC7-C30C-4ADD-8093-89236029C7A1}"/>
     <hyperlink ref="E26" r:id="rId10" xr:uid="{A1ABE773-664E-4732-86CC-F2749E1E54FE}"/>
     <hyperlink ref="D26" r:id="rId11" xr:uid="{ECDB5A90-F05A-4B09-8298-3593105B2118}"/>
-    <hyperlink ref="E25" r:id="rId12" display="https://eu.mouser.com/ProductDetail/KEMET/C0805C104M5RAC?qs=VOOUd%252Bza08rWzt4y8eXMuQ%3D%3D" xr:uid="{AF7CA242-553D-491B-912A-A6B98FCC6172}"/>
-    <hyperlink ref="D25" r:id="rId13" display="https://eu.mouser.com/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{189FFA01-0511-411E-9C7C-D7425091DD2D}"/>
-    <hyperlink ref="E24" r:id="rId14" display="https://www.mouser.es/ProductDetail/KEMET/C0805C105K3RAC?qs=ycRbFa0SLRQpHhAu2LUs4g%3D%3D" xr:uid="{0FCC25C3-D9DF-4B4B-BCCA-759AE08E3E7C}"/>
-    <hyperlink ref="D24" r:id="rId15" display="https://www.mouser.es/datasheet/2/447/KEM_C1002_X7R_SMD-3316098.pdf" xr:uid="{A4366032-B6AD-4B6E-86E4-651A6FB94739}"/>
+    <hyperlink ref="E25" r:id="rId12" xr:uid="{AF7CA242-553D-491B-912A-A6B98FCC6172}"/>
+    <hyperlink ref="D25" r:id="rId13" display="cer100n0805" xr:uid="{189FFA01-0511-411E-9C7C-D7425091DD2D}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{0FCC25C3-D9DF-4B4B-BCCA-759AE08E3E7C}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{A4366032-B6AD-4B6E-86E4-651A6FB94739}"/>
     <hyperlink ref="E23" r:id="rId16" display="https://www.mouser.es/ProductDetail/Wurth-Elektronik/860010372004?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6V%2FBdkDX4IUo%3D" xr:uid="{F6A9C276-C183-40D6-BCE3-88BD25B8FE21}"/>
-    <hyperlink ref="D23" r:id="rId17" display="https://www.we-online.com/components/products/datasheet/860010372004.pdf" xr:uid="{64F47EB5-5E4F-4456-9BA1-C34A10157607}"/>
-    <hyperlink ref="E22" r:id="rId18" display="https://eu.mouser.com/ProductDetail/Wurth-Elektronik/865080540002?qs=sGAEpiMZZMsh%252B1woXyUXj4jKQI6sNRw6puNwow3HMPo%3D" xr:uid="{533CB1B0-DAA5-419A-95D2-3F13D2CD595B}"/>
-    <hyperlink ref="D22" r:id="rId19" display="https://www.we-online.com/components/products/datasheet/865080540002.pdf" xr:uid="{B821F353-7CE6-48D6-94F5-881014D70828}"/>
+    <hyperlink ref="D23" r:id="rId17" display="cele74u" xr:uid="{64F47EB5-5E4F-4456-9BA1-C34A10157607}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{533CB1B0-DAA5-419A-95D2-3F13D2CD595B}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{B821F353-7CE6-48D6-94F5-881014D70828}"/>
     <hyperlink ref="E21" r:id="rId20" display="https://eu.mouser.com/ProductDetail/KYOCERA-AVX/KAM31BR81H103KT?qs=Jm2GQyTW%2FbjzijSUJGW%2FJA%3D%3D" xr:uid="{FCBCC094-A86A-46A6-A04F-8AB770EF6DE4}"/>
-    <hyperlink ref="D21" r:id="rId21" display="https://eu.mouser.com/datasheet/2/40/AutoMLCCKAM-3216307.pdf" xr:uid="{1DDA3BEE-8BEB-4DE8-9F38-782C4EF1D470}"/>
+    <hyperlink ref="D21" r:id="rId21" xr:uid="{1DDA3BEE-8BEB-4DE8-9F38-782C4EF1D470}"/>
     <hyperlink ref="E20" r:id="rId22" display="https://eu.mouser.com/ProductDetail/Chemi-Con/KTS500B226M76N0T00?qs=yFwz03cOJpkGGSneI4ka0Q%3D%3D" xr:uid="{F1403E85-644F-4A09-AABD-730E2BD5559C}"/>
-    <hyperlink ref="D20" r:id="rId23" display="https://eu.mouser.com/datasheet/2/420/nipc_s_a0010886389_1-2285932.pdf" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
-    <hyperlink ref="E19" r:id="rId24" display="https://eu.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B226KPHNNWE?qs=xZ%2FP%252Ba9zWqYr7HUxVtf3Yw%3D%3D" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
-    <hyperlink ref="D19" r:id="rId25" display="https://eu.mouser.com/datasheet/2/585/MLCC-1837944.pdf" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
+    <hyperlink ref="D20" r:id="rId23" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
+    <hyperlink ref="E19" r:id="rId24" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
+    <hyperlink ref="D19" r:id="rId25" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
     <hyperlink ref="E18" r:id="rId26" display="https://eu.mouser.com/ProductDetail/KEMET/T491A105K020AT4360?qs=sGAEpiMZZMsh%252B1woXyUXjyEnHz%2F1kG1y%2Fw9r1ZBsrUs%3D" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
     <hyperlink ref="D18" r:id="rId27" display="https://eu.mouser.com/datasheet/2/447/KEM_T2005_T491-3316937.pdf" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
     <hyperlink ref="E17" r:id="rId28" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P783-Q24-S3-S?qs=sPbYRqrBIVl7G8uy4wpmww%3D%3D" xr:uid="{5034372E-BC57-4295-8C83-857784642725}"/>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9FC2F-A3EB-4262-9276-A1CA26B397D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4DA5F2-72D3-4197-AD14-D0A3B21E733C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Unity price</t>
   </si>
   <si>
-    <t>not used</t>
-  </si>
-  <si>
     <t>Components</t>
   </si>
   <si>
@@ -306,12 +303,6 @@
     <t>Preu unitari PCB</t>
   </si>
   <si>
-    <t>• Producció de 20.000 peces any • Durada del projecte 3 anys • Nom del projecte: el que sigui... • Empresa ACME</t>
-  </si>
-  <si>
-    <t>Criteris 20000u</t>
-  </si>
-  <si>
     <t>C Cer 0.1u 50V 0402</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
     <t xml:space="preserve">1,61 €	</t>
   </si>
   <si>
-    <t>16,10 €</t>
-  </si>
-  <si>
     <t>5,38 €</t>
   </si>
   <si>
@@ -384,9 +372,6 @@
     <t>0,165 €</t>
   </si>
   <si>
-    <t>1,65 €</t>
-  </si>
-  <si>
     <t>0,08 €</t>
   </si>
   <si>
@@ -396,49 +381,223 @@
     <t>0,195 €</t>
   </si>
   <si>
-    <t>1,95 €</t>
-  </si>
-  <si>
     <t>0,222 €</t>
   </si>
   <si>
-    <t>2,22 €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,093 €	</t>
-  </si>
-  <si>
-    <t>0,93</t>
-  </si>
-  <si>
     <t>0,091 €</t>
   </si>
   <si>
-    <t>0,91 €</t>
-  </si>
-  <si>
     <t>0,187 €</t>
   </si>
   <si>
     <t>1,87 €</t>
   </si>
   <si>
-    <t>2,99 €</t>
-  </si>
-  <si>
-    <t>29,90 €</t>
-  </si>
-  <si>
     <t>0,276 €</t>
   </si>
   <si>
     <t>2,76 €</t>
+  </si>
+  <si>
+    <t>0,42 €</t>
+  </si>
+  <si>
+    <t>26,74 €</t>
+  </si>
+  <si>
+    <t>2,41 €</t>
+  </si>
+  <si>
+    <t>2,41 €</t>
+  </si>
+  <si>
+    <t>1,80 €</t>
+  </si>
+  <si>
+    <t>0,41 €</t>
+  </si>
+  <si>
+    <t>0,54 €</t>
+  </si>
+  <si>
+    <t>5,53 €</t>
+  </si>
+  <si>
+    <t>0,38 €</t>
+  </si>
+  <si>
+    <t>3,59 €</t>
+  </si>
+  <si>
+    <t>0,28 €</t>
+  </si>
+  <si>
+    <t>0,19 €</t>
+  </si>
+  <si>
+    <t>0,09 €</t>
+  </si>
+  <si>
+    <t>0,29 €</t>
+  </si>
+  <si>
+    <t>53,48 €</t>
+  </si>
+  <si>
+    <t>3,60 €</t>
+  </si>
+  <si>
+    <t>0,84 €</t>
+  </si>
+  <si>
+    <t>0,95 €</t>
+  </si>
+  <si>
+    <t>2,1 €</t>
+  </si>
+  <si>
+    <t>1,74 €</t>
+  </si>
+  <si>
+    <t>0,18 €</t>
+  </si>
+  <si>
+    <t>32,2 €</t>
+  </si>
+  <si>
+    <t>0,404 €</t>
+  </si>
+  <si>
+    <t>8,08 €</t>
+  </si>
+  <si>
+    <t>0,214 €</t>
+  </si>
+  <si>
+    <t>2,14 €</t>
+  </si>
+  <si>
+    <t>3,05 €</t>
+  </si>
+  <si>
+    <t>4,55 €</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,5 € </t>
+  </si>
+  <si>
+    <t>11,1 €</t>
+  </si>
+  <si>
+    <t>11,7 €</t>
+  </si>
+  <si>
+    <t>3,3 €</t>
+  </si>
+  <si>
+    <t>NOT USED</t>
+  </si>
+  <si>
+    <t>0,083 €</t>
+  </si>
+  <si>
+    <t>4,15 €</t>
+  </si>
+  <si>
+    <t>Preu Stencils</t>
+  </si>
+  <si>
+    <t>6,76 €</t>
+  </si>
+  <si>
+    <t>23,80 €</t>
+  </si>
+  <si>
+    <t>2.380,00 €</t>
+  </si>
+  <si>
+    <t>108,50 €</t>
+  </si>
+  <si>
+    <t>1,35 €</t>
+  </si>
+  <si>
+    <t>13,9 €</t>
+  </si>
+  <si>
+    <t>22,85 €</t>
+  </si>
+  <si>
+    <t>33,04 €</t>
+  </si>
+  <si>
+    <t>5,06 €</t>
+  </si>
+  <si>
+    <t>0,3304 €</t>
+  </si>
+  <si>
+    <t>135,00 €</t>
+  </si>
+  <si>
+    <t>253,00 €</t>
+  </si>
+  <si>
+    <t>10,70 €</t>
+  </si>
+  <si>
+    <t>13,80 €</t>
+  </si>
+  <si>
+    <t>138,00 €</t>
+  </si>
+  <si>
+    <t>9,35 €</t>
+  </si>
+  <si>
+    <t>0,053 €</t>
+  </si>
+  <si>
+    <t>13,25 €</t>
+  </si>
+  <si>
+    <t>0,064 €</t>
+  </si>
+  <si>
+    <t>19,20 €</t>
+  </si>
+  <si>
+    <t>0,063 €</t>
+  </si>
+  <si>
+    <t>15,75 €</t>
+  </si>
+  <si>
+    <t>0,117 €</t>
+  </si>
+  <si>
+    <t>35,10 €</t>
+  </si>
+  <si>
+    <t>4,00 €</t>
+  </si>
+  <si>
+    <t>0,115 €</t>
+  </si>
+  <si>
+    <t>11,50 €</t>
+  </si>
+  <si>
+    <t>338,00 €</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -540,21 +699,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -566,14 +716,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -583,6 +732,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE5C7C7"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -860,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N37"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,9 +1024,9 @@
     <col min="8" max="18" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -888,34 +1038,40 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -932,44 +1088,56 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -986,19 +1154,29 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1014,70 +1192,84 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1094,19 +1286,29 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1120,18 +1322,20 @@
         <v>8</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1148,19 +1352,29 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1176,45 +1390,57 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1228,18 +1454,20 @@
         <v>38</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1255,16 +1483,30 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1280,20 +1522,30 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1307,25 +1559,27 @@
         <v>8</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1334,45 +1588,69 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
@@ -1388,27 +1666,37 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1418,24 +1706,34 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>60</v>
@@ -1446,28 +1744,38 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="2">
         <v>860010372004</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>97</v>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
@@ -1476,24 +1784,34 @@
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>63</v>
@@ -1504,49 +1822,69 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="2">
         <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>64</v>
       </c>
@@ -1562,20 +1900,30 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
@@ -1592,19 +1940,29 @@
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
@@ -1620,20 +1978,30 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -1650,19 +2018,29 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>76</v>
       </c>
@@ -1678,20 +2056,30 @@
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
@@ -1708,19 +2096,29 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>83</v>
       </c>
@@ -1736,32 +2134,40 @@
       <c r="G35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="I36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1790,8 +2196,8 @@
     <hyperlink ref="D20" r:id="rId23" xr:uid="{A8621DD7-ADE8-4161-821B-4585C6F351B4}"/>
     <hyperlink ref="E19" r:id="rId24" xr:uid="{1B72AA9C-32A9-4E15-805A-9C604B476504}"/>
     <hyperlink ref="D19" r:id="rId25" xr:uid="{1E816C52-9BA8-42BC-B9D3-2C6547D7F852}"/>
-    <hyperlink ref="E18" r:id="rId26" display="https://eu.mouser.com/ProductDetail/KEMET/T491A105K020AT4360?qs=sGAEpiMZZMsh%252B1woXyUXjyEnHz%2F1kG1y%2Fw9r1ZBsrUs%3D" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
-    <hyperlink ref="D18" r:id="rId27" display="https://eu.mouser.com/datasheet/2/447/KEM_T2005_T491-3316937.pdf" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
+    <hyperlink ref="E18" r:id="rId26" xr:uid="{912B986B-651C-4B42-AD1D-D783DA2E23B2}"/>
+    <hyperlink ref="D18" r:id="rId27" xr:uid="{4817F474-4EBE-4CDD-8266-08E93F7F46AA}"/>
     <hyperlink ref="E17" r:id="rId28" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P783-Q24-S3-S?qs=sPbYRqrBIVl7G8uy4wpmww%3D%3D" xr:uid="{5034372E-BC57-4295-8C83-857784642725}"/>
     <hyperlink ref="D17" r:id="rId29" display="https://eu.mouser.com/datasheet/2/670/p783_s-1889817.pdf" xr:uid="{A9529BFF-D871-4C13-8588-2BD41905549C}"/>
     <hyperlink ref="E16" r:id="rId30" display="https://eu.mouser.com/ProductDetail/CUI-Inc/P7803-2000R-S?qs=vvQtp7zwQdObalelOc2Obw%3D%3D" xr:uid="{C2C8252F-E7E4-486F-B1F3-C782844ADC09}"/>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4DA5F2-72D3-4197-AD14-D0A3B21E733C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D4C75-6167-417D-BFF7-CDC6033387CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -589,6 +589,42 @@
   </si>
   <si>
     <t>338,00 €</t>
+  </si>
+  <si>
+    <t>35,04 €</t>
+  </si>
+  <si>
+    <t>350,4 €</t>
+  </si>
+  <si>
+    <t>1752,00 €</t>
+  </si>
+  <si>
+    <t>2,24 €</t>
+  </si>
+  <si>
+    <t>2,19 €</t>
+  </si>
+  <si>
+    <t>21,90 €</t>
+  </si>
+  <si>
+    <t>2,08 €</t>
+  </si>
+  <si>
+    <t>104,00 €</t>
+  </si>
+  <si>
+    <t>287,64 €</t>
+  </si>
+  <si>
+    <t>5,75 €</t>
+  </si>
+  <si>
+    <t>1,92 €</t>
+  </si>
+  <si>
+    <t>1.920,00 €</t>
   </si>
 </sst>
 </file>
@@ -644,7 +680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,12 +702,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -717,12 +747,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1012,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,6 +1048,7 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
     <col min="8" max="18" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1099,7 +1127,7 @@
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="13" t="s">
         <v>187</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1111,31 +1139,43 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="14"/>
+      <c r="G4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -1216,58 +1256,82 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="14"/>
+      <c r="G7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="14"/>
+      <c r="G8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1297,7 +1361,7 @@
       <c r="J9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="13" t="s">
         <v>170</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1414,31 +1478,43 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="G13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
@@ -1579,7 +1655,7 @@
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2236,14 +2312,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ED4E95E98BE39645B2A5122B59228C1C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="befa2a1b9a24cffd904810867b8b238f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="289a0874-0c95-4191-841a-e39351615097" xmlns:ns4="2815469b-4fcf-457f-81f1-22ea46bc5ebe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b584bc5519d0f097e66008559945f81" ns3:_="" ns4:_="">
     <xsd:import namespace="289a0874-0c95-4191-841a-e39351615097"/>
@@ -2472,6 +2540,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2482,23 +2558,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD36479-96DD-494E-99AD-96D567315D91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2517,6 +2576,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
   <ds:schemaRefs>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D4C75-6167-417D-BFF7-CDC6033387CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C65FAA-EAB3-4228-B04E-D9973D14F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="267">
   <si>
     <t>Name</t>
   </si>
@@ -625,6 +625,207 @@
   </si>
   <si>
     <t>1.920,00 €</t>
+  </si>
+  <si>
+    <t>6,11 €</t>
+  </si>
+  <si>
+    <t>6.110,00 €</t>
+  </si>
+  <si>
+    <t>1,18 €</t>
+  </si>
+  <si>
+    <t>1.180,00 €</t>
+  </si>
+  <si>
+    <t>1,04 €</t>
+  </si>
+  <si>
+    <t>1,53 €</t>
+  </si>
+  <si>
+    <t>1.530,00 €</t>
+  </si>
+  <si>
+    <t>90,00 €</t>
+  </si>
+  <si>
+    <t>0,201 €</t>
+  </si>
+  <si>
+    <t>201,00 €</t>
+  </si>
+  <si>
+    <t>35.040,00 €</t>
+  </si>
+  <si>
+    <t>0,25096 €</t>
+  </si>
+  <si>
+    <t>4,43 €</t>
+  </si>
+  <si>
+    <t>4.430,00 €</t>
+  </si>
+  <si>
+    <t>0,101 €</t>
+  </si>
+  <si>
+    <t>101,00 €</t>
+  </si>
+  <si>
+    <t>0,113 €</t>
+  </si>
+  <si>
+    <t>113,00 €</t>
+  </si>
+  <si>
+    <t>1.870,00 €</t>
+  </si>
+  <si>
+    <t>0,069 €</t>
+  </si>
+  <si>
+    <t>69,00 €</t>
+  </si>
+  <si>
+    <t>0,032 €</t>
+  </si>
+  <si>
+    <t>160,00 €</t>
+  </si>
+  <si>
+    <t>0,054 €</t>
+  </si>
+  <si>
+    <t>0,009 €</t>
+  </si>
+  <si>
+    <t>0,018 €</t>
+  </si>
+  <si>
+    <t>324,00 €</t>
+  </si>
+  <si>
+    <t>0,038 €</t>
+  </si>
+  <si>
+    <t>190,00 €</t>
+  </si>
+  <si>
+    <t>0,073 €</t>
+  </si>
+  <si>
+    <t>438,00 €</t>
+  </si>
+  <si>
+    <t>2.080,00 €</t>
+  </si>
+  <si>
+    <t>501,92 €</t>
+  </si>
+  <si>
+    <t>18,00 €</t>
+  </si>
+  <si>
+    <t>0,024 €</t>
+  </si>
+  <si>
+    <t>24,00 €</t>
+  </si>
+  <si>
+    <t>0,074 €</t>
+  </si>
+  <si>
+    <t>148,00 €</t>
+  </si>
+  <si>
+    <t>122.200,00 €</t>
+  </si>
+  <si>
+    <t>1,01 €</t>
+  </si>
+  <si>
+    <t>20.200,00 €</t>
+  </si>
+  <si>
+    <t>1,34 €</t>
+  </si>
+  <si>
+    <t>26.800,00 €</t>
+  </si>
+  <si>
+    <t>0,057 €</t>
+  </si>
+  <si>
+    <t>1.140,00 €</t>
+  </si>
+  <si>
+    <t>0,158 €</t>
+  </si>
+  <si>
+    <t>3.160,00 €</t>
+  </si>
+  <si>
+    <t>700.800,00 €</t>
+  </si>
+  <si>
+    <t>41.600,00 €</t>
+  </si>
+  <si>
+    <t>8.142,40 €</t>
+  </si>
+  <si>
+    <t>0,20356 €</t>
+  </si>
+  <si>
+    <t>4,27 €</t>
+  </si>
+  <si>
+    <t>85.400,00 €</t>
+  </si>
+  <si>
+    <t>1.380,00 €</t>
+  </si>
+  <si>
+    <t>0,089 €</t>
+  </si>
+  <si>
+    <t>1.780,00 €</t>
+  </si>
+  <si>
+    <t>1,83 €</t>
+  </si>
+  <si>
+    <t>36.600,00 €</t>
+  </si>
+  <si>
+    <t>1.080,00 €</t>
+  </si>
+  <si>
+    <t>2.400,00 €</t>
+  </si>
+  <si>
+    <t>6.480,00 €</t>
+  </si>
+  <si>
+    <t>6.360,00 €</t>
+  </si>
+  <si>
+    <t>180,00 €</t>
+  </si>
+  <si>
+    <t>220,00 €</t>
+  </si>
+  <si>
+    <t>0,065 €</t>
+  </si>
+  <si>
+    <t>2.600,00 €</t>
+  </si>
+  <si>
+    <t>0,011 €</t>
   </si>
 </sst>
 </file>
@@ -680,7 +881,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +903,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -750,6 +957,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1040,7 +1250,7 @@
   <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="P22" sqref="P22:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1258,7 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="18" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,10 +1343,18 @@
       <c r="L3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
+      <c r="M3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -1172,10 +1390,10 @@
       <c r="L4" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -1211,10 +1429,10 @@
       <c r="L5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -1250,49 +1468,61 @@
       <c r="L6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
+      <c r="M7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -1328,10 +1558,18 @@
       <c r="L8" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
+      <c r="M8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1367,10 +1605,18 @@
       <c r="L9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
+      <c r="M9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
@@ -1397,7 +1643,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -1433,10 +1679,18 @@
       <c r="L11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
+      <c r="M11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
@@ -1472,10 +1726,18 @@
       <c r="L12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
+      <c r="M12" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -1511,10 +1773,18 @@
       <c r="L13" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
+      <c r="M13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
@@ -1541,7 +1811,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -1577,10 +1847,18 @@
       <c r="L15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
+      <c r="M15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -1616,10 +1894,18 @@
       <c r="L16" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
+      <c r="M16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -1646,7 +1932,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
@@ -1682,10 +1968,18 @@
       <c r="L18" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
+      <c r="M18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -1721,10 +2015,18 @@
       <c r="L19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
@@ -1760,10 +2062,18 @@
       <c r="L20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
+      <c r="M20" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -1799,10 +2109,18 @@
       <c r="L21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
@@ -1838,10 +2156,18 @@
       <c r="L22" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="5"/>
+      <c r="M22" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -1877,10 +2203,18 @@
       <c r="L23" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
+      <c r="M23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
@@ -1916,10 +2250,18 @@
       <c r="L24" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="5"/>
+      <c r="M24" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1955,10 +2297,18 @@
       <c r="L25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
+      <c r="M25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
@@ -1994,10 +2344,18 @@
       <c r="L26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="5"/>
+      <c r="M26" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
@@ -2033,10 +2391,18 @@
       <c r="L27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
+      <c r="M27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
@@ -2072,10 +2438,18 @@
       <c r="L28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
+      <c r="M28" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
@@ -2111,10 +2485,18 @@
       <c r="L29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
+      <c r="M29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
@@ -2150,10 +2532,18 @@
       <c r="L30" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
+      <c r="M30" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
@@ -2189,10 +2579,18 @@
       <c r="L31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
+      <c r="M31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
@@ -2221,7 +2619,9 @@
       <c r="D36" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
@@ -2312,6 +2712,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ED4E95E98BE39645B2A5122B59228C1C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="befa2a1b9a24cffd904810867b8b238f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="289a0874-0c95-4191-841a-e39351615097" xmlns:ns4="2815469b-4fcf-457f-81f1-22ea46bc5ebe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b584bc5519d0f097e66008559945f81" ns3:_="" ns4:_="">
     <xsd:import namespace="289a0874-0c95-4191-841a-e39351615097"/>
@@ -2540,14 +2948,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2558,6 +2958,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD36479-96DD-494E-99AD-96D567315D91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2576,23 +2993,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
   <ds:schemaRefs>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projecte_EDD\master\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C65FAA-EAB3-4228-B04E-D9973D14F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6A1F0F-E749-45D7-9DB2-2B06F05243B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="272">
   <si>
     <t>Name</t>
   </si>
@@ -826,6 +826,21 @@
   </si>
   <si>
     <t>0,011 €</t>
+  </si>
+  <si>
+    <t>35.600,00 €</t>
+  </si>
+  <si>
+    <t>1,78 €</t>
+  </si>
+  <si>
+    <t>23,05 €</t>
+  </si>
+  <si>
+    <t>46.100,00 €</t>
+  </si>
+  <si>
+    <t>922.000,00 €</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1265,7 @@
   <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22:P31"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,10 +1444,18 @@
       <c r="L5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
+      <c r="M5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -1515,14 +1538,18 @@
       <c r="L7" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -2712,14 +2739,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ED4E95E98BE39645B2A5122B59228C1C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="befa2a1b9a24cffd904810867b8b238f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="289a0874-0c95-4191-841a-e39351615097" xmlns:ns4="2815469b-4fcf-457f-81f1-22ea46bc5ebe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b584bc5519d0f097e66008559945f81" ns3:_="" ns4:_="">
     <xsd:import namespace="289a0874-0c95-4191-841a-e39351615097"/>
@@ -2948,6 +2967,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="289a0874-0c95-4191-841a-e39351615097" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2958,23 +2985,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD36479-96DD-494E-99AD-96D567315D91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2993,6 +3003,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCE795B7-2B72-4FC6-9627-DC180CF6477A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="289a0874-0c95-4191-841a-e39351615097"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2815469b-4fcf-457f-81f1-22ea46bc5ebe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D6F600-C755-4ADE-A4ED-DD771661F606}">
   <ds:schemaRefs>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t xml:space="preserve">1xPCB</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">motor</t>
   </si>
   <si>
-    <t xml:space="preserve">El preu de 20000 és el més barat de mouser, encara no tenim el pressupost</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAN Transciever</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t xml:space="preserve">r1k</t>
   </si>
   <si>
-    <t xml:space="preserve">potser millor mouser</t>
-  </si>
-  <si>
     <t xml:space="preserve">R 330 125mW 0805</t>
   </si>
   <si>
@@ -325,19 +319,19 @@
     <t xml:space="preserve">dcdc3A</t>
   </si>
   <si>
-    <t xml:space="preserve">Preu Stencils</t>
+    <t xml:space="preserve">Preu Stencils  (€)</t>
   </si>
   <si>
     <t xml:space="preserve">Assumim 1000 usos/stencil</t>
   </si>
   <si>
-    <t xml:space="preserve">Preu fabricació PCBs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preu Total PCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preu unitari PCB</t>
+    <t xml:space="preserve">Preu fabricació PCBs (€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preu Total PCB  (€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preu unitari PCB  (€)</t>
   </si>
   <si>
     <t xml:space="preserve">JLCPCB fabrica com a mínim 5 pcbs, per aquest preu se’n tenen 5</t>
@@ -519,7 +513,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,7 +522,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,15 +542,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,10 +555,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -597,18 +579,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -862,10 +832,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Q40"/>
+  <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -961,102 +931,102 @@
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="7" t="n">
         <v>7.37</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="7" t="n">
         <f aca="false">F3*G3</f>
         <v>7.37</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="7" t="n">
         <v>7.37</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="7" t="n">
         <f aca="false">F3*I3*10</f>
         <v>73.7</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="7" t="n">
         <v>6.76</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="7" t="n">
         <f aca="false">F3*K3*50</f>
         <v>338</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="7" t="n">
         <v>6.12</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="7" t="n">
         <f aca="false">F3*M3*1000</f>
         <v>6120</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="7" t="n">
         <v>6.12</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="8" t="n">
         <f aca="false">F3*O3*20000</f>
         <v>122400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="10" t="n">
         <v>5.7528</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="10" t="n">
         <f aca="false">F4*G4</f>
         <v>5.7528</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="10" t="n">
         <v>5.7528</v>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="false">F4*I4*10</f>
         <v>57.528</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="10" t="n">
         <v>5.7528</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="10" t="n">
         <f aca="false">F4*K4*50</f>
         <v>287.64</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="10" t="n">
         <v>5.7528</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="10" t="n">
         <f aca="false">F4*M4*1000</f>
         <v>5752.8</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="10" t="n">
         <v>5.7528</v>
       </c>
-      <c r="P4" s="14" t="n">
+      <c r="P4" s="11" t="n">
         <f aca="false">F4*O4*20000</f>
         <v>115056</v>
       </c>
@@ -1065,1337 +1035,1330 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="7" t="n">
         <v>26.74</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="7" t="n">
         <f aca="false">F5*G5</f>
         <v>53.48</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="7" t="n">
         <v>24.31</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="7" t="n">
         <f aca="false">F5*I5*10</f>
         <v>486.2</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="7" t="n">
         <v>23.8</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="7" t="n">
         <f aca="false">F5*K5*50</f>
         <v>2380</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="7" t="n">
         <v>23.3</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="7" t="n">
         <f aca="false">F5*M5*1000</f>
         <v>46600</v>
       </c>
-      <c r="O5" s="8" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="P5" s="10" t="n">
+      <c r="O5" s="7" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P5" s="8" t="n">
         <f aca="false">F5*O5*20000</f>
-        <v>932000</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+        <v>922000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="10" t="n">
         <v>2.41</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="10" t="n">
         <f aca="false">F6*G6</f>
         <v>2.41</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="10" t="n">
         <v>2.17</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="10" t="n">
         <f aca="false">F6*I6*10</f>
         <v>21.7</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="10" t="n">
         <v>2.17</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="10" t="n">
         <f aca="false">F6*K6*50</f>
         <v>108.5</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="10" t="n">
         <v>1.18</v>
       </c>
-      <c r="N6" s="13" t="n">
+      <c r="N6" s="10" t="n">
         <f aca="false">F6*M6*1000</f>
         <v>1180</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="10" t="n">
         <v>1.01</v>
       </c>
-      <c r="P6" s="14" t="n">
+      <c r="P6" s="11" t="n">
         <f aca="false">F6*O6*20000</f>
         <v>20200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="7" t="n">
         <v>1.92029</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="7" t="n">
         <f aca="false">F7*G7</f>
         <v>1.92029</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="7" t="n">
         <v>1.92029</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="7" t="n">
         <f aca="false">F7*I7*10</f>
         <v>19.2029</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="7" t="n">
         <v>1.92029</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="7" t="n">
         <f aca="false">F7*K7*50</f>
         <v>96.0145</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="7" t="n">
         <v>1.92029</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="7" t="n">
         <f aca="false">F7*M7*1000</f>
         <v>1920.29</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="7" t="n">
         <v>1.92029</v>
       </c>
-      <c r="P7" s="10" t="n">
+      <c r="P7" s="8" t="n">
         <f aca="false">F7*O7*20000</f>
         <v>38405.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="10" t="n">
         <v>2.24</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="10" t="n">
         <f aca="false">F8*G8</f>
         <v>2.24</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="10" t="n">
         <v>2.19</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="10" t="n">
         <f aca="false">F8*I8*10</f>
         <v>21.9</v>
       </c>
-      <c r="K8" s="12" t="n">
+      <c r="K8" s="10" t="n">
         <v>2.08</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="10" t="n">
         <f aca="false">F8*K8*50</f>
         <v>104</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="10" t="n">
         <v>1.53</v>
       </c>
-      <c r="N8" s="13" t="n">
+      <c r="N8" s="10" t="n">
         <f aca="false">F8*M8*1000</f>
         <v>1530</v>
       </c>
-      <c r="O8" s="12" t="n">
+      <c r="O8" s="10" t="n">
         <v>1.34</v>
       </c>
-      <c r="P8" s="14" t="n">
+      <c r="P8" s="11" t="n">
         <f aca="false">F8*O8*20000</f>
         <v>26800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="7" t="n">
         <f aca="false">F9*G9</f>
         <v>3.6</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="7" t="n">
         <v>1.61</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="7" t="n">
         <f aca="false">F9*I9*10</f>
         <v>32.2</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="7" t="n">
         <v>1.35</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="7" t="n">
         <f aca="false">F9*K9*50</f>
         <v>135</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="7" t="n">
         <f aca="false">F9*M9*1000</f>
         <v>2080</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="7" t="n">
         <v>1.04</v>
       </c>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="8" t="n">
         <f aca="false">F9*O9*20000</f>
         <v>41600</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="10" t="n">
         <v>0.41</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="10" t="n">
         <f aca="false">F10*G10</f>
         <v>0.41</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="10" t="n">
         <v>0.278</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="10" t="n">
         <f aca="false">F10*I10*10</f>
         <v>2.78</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="K10" s="10" t="n">
         <v>0.278</v>
       </c>
-      <c r="L10" s="13" t="n">
+      <c r="L10" s="10" t="n">
         <f aca="false">F10*K10*50</f>
         <v>13.9</v>
       </c>
-      <c r="M10" s="12" t="n">
+      <c r="M10" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="N10" s="13" t="n">
+      <c r="N10" s="10" t="n">
         <f aca="false">F10*M10*1000</f>
         <v>90</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="10" t="n">
         <v>0.057</v>
       </c>
-      <c r="P10" s="14" t="n">
+      <c r="P10" s="11" t="n">
         <f aca="false">F10*O10*20000</f>
         <v>1140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="7" t="n">
         <v>0.54</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="7" t="n">
         <f aca="false">F11*G11</f>
         <v>0.54</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="7" t="n">
         <v>0.457</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="7" t="n">
         <f aca="false">F11*I11*10</f>
         <v>4.57</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="7" t="n">
         <v>0.457</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="7" t="n">
         <f aca="false">F11*K11*50</f>
         <v>22.85</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="7" t="n">
         <v>0.201</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="N11" s="7" t="n">
         <f aca="false">F11*M11*1000</f>
         <v>201</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="7" t="n">
         <v>0.158</v>
       </c>
-      <c r="P11" s="10" t="n">
+      <c r="P11" s="8" t="n">
         <f aca="false">F11*O11*20000</f>
         <v>3160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="10" t="n">
         <v>35.04</v>
       </c>
-      <c r="H12" s="13" t="n">
+      <c r="H12" s="10" t="n">
         <f aca="false">F12*G12</f>
         <v>35.04</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="10" t="n">
         <v>35.04</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="10" t="n">
         <f aca="false">F12*I12*10</f>
         <v>350.4</v>
       </c>
-      <c r="K12" s="12" t="n">
+      <c r="K12" s="10" t="n">
         <v>35.04</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="10" t="n">
         <f aca="false">F12*K12*50</f>
         <v>1752</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="10" t="n">
         <v>35.04</v>
       </c>
-      <c r="N12" s="13" t="n">
+      <c r="N12" s="10" t="n">
         <f aca="false">F12*M12*1000</f>
         <v>35040</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="10" t="n">
         <v>35.04</v>
       </c>
-      <c r="P12" s="14" t="n">
+      <c r="P12" s="11" t="n">
         <f aca="false">F12*O12*20000</f>
         <v>700800</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="7" t="n">
         <v>0.42</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="7" t="n">
         <f aca="false">F13*G13</f>
         <v>0.84</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="7" t="n">
         <v>0.404</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="7" t="n">
         <f aca="false">F13*I13*10</f>
         <v>8.08</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="7" t="n">
         <v>0.3304</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="7" t="n">
         <f aca="false">F13*K13*50</f>
         <v>33.04</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="7" t="n">
         <v>0.25096</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="7" t="n">
         <f aca="false">F13*M13*1000</f>
         <v>501.92</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="7" t="n">
         <v>0.20356</v>
       </c>
-      <c r="P13" s="10" t="n">
+      <c r="P13" s="8" t="n">
         <f aca="false">F13*O13*20000</f>
         <v>8142.4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="10" t="n">
         <v>5.53</v>
       </c>
-      <c r="H14" s="13" t="n">
+      <c r="H14" s="10" t="n">
         <f aca="false">F14*G14</f>
         <v>5.53</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="10" t="n">
         <v>5.38</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="10" t="n">
         <f aca="false">F14*I14*10</f>
         <v>53.8</v>
       </c>
-      <c r="K14" s="12" t="n">
+      <c r="K14" s="10" t="n">
         <v>5.06</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="10" t="n">
         <f aca="false">F14*K14*50</f>
         <v>253</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="10" t="n">
         <v>4.43</v>
       </c>
-      <c r="N14" s="13" t="n">
+      <c r="N14" s="10" t="n">
         <f aca="false">F14*M14*1000</f>
         <v>4430</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="10" t="n">
         <v>4.27</v>
       </c>
-      <c r="P14" s="14" t="n">
+      <c r="P14" s="11" t="n">
         <f aca="false">F14*O14*20000</f>
         <v>85400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="7" t="n">
         <f aca="false">F15*G15</f>
         <v>0.38</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="7" t="n">
         <v>0.214</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="7" t="n">
         <f aca="false">F15*I15*10</f>
         <v>2.14</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="7" t="n">
         <v>0.214</v>
       </c>
-      <c r="L15" s="9" t="n">
+      <c r="L15" s="7" t="n">
         <f aca="false">F15*K15*50</f>
         <v>10.7</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9" t="n">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="n">
         <f aca="false">F15*M15*1000</f>
         <v>0</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="7" t="n">
         <v>0.0068</v>
       </c>
-      <c r="P15" s="10" t="n">
+      <c r="P15" s="8" t="n">
         <f aca="false">F15*O15*20000</f>
         <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="G16" s="10" t="n">
         <v>0.42</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="10" t="n">
         <f aca="false">F16*G16</f>
         <v>0.42</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="10" t="n">
         <v>0.276</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="10" t="n">
         <f aca="false">F16*I16*10</f>
         <v>2.76</v>
       </c>
-      <c r="K16" s="12" t="n">
+      <c r="K16" s="10" t="n">
         <v>0.276</v>
       </c>
-      <c r="L16" s="13" t="n">
+      <c r="L16" s="10" t="n">
         <f aca="false">F16*K16*50</f>
         <v>13.8</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="10" t="n">
         <v>0.113</v>
       </c>
-      <c r="N16" s="13" t="n">
+      <c r="N16" s="10" t="n">
         <f aca="false">F16*M16*1000</f>
         <v>113</v>
       </c>
-      <c r="O16" s="12" t="n">
+      <c r="O16" s="10" t="n">
         <v>0.089</v>
       </c>
-      <c r="P16" s="14" t="n">
+      <c r="P16" s="11" t="n">
         <f aca="false">F16*O16*20000</f>
         <v>1780</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="7" t="n">
         <v>3.59</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="7" t="n">
         <f aca="false">F17*G17</f>
         <v>3.59</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="7" t="n">
         <v>3.05</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="7" t="n">
         <f aca="false">F17*I17*10</f>
         <v>30.5</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="7" t="n">
         <v>2.76</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="L17" s="7" t="n">
         <f aca="false">F17*K17*50</f>
         <v>138</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="7" t="n">
         <v>1.87</v>
       </c>
-      <c r="N17" s="9" t="n">
+      <c r="N17" s="7" t="n">
         <f aca="false">F17*M17*1000</f>
         <v>1870</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="7" t="n">
         <v>1.83</v>
       </c>
-      <c r="P17" s="10" t="n">
+      <c r="P17" s="8" t="n">
         <f aca="false">F17*O17*20000</f>
         <v>36600</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="10" t="n">
         <v>0.28</v>
       </c>
-      <c r="H18" s="13" t="n">
+      <c r="H18" s="10" t="n">
         <f aca="false">F18*G18</f>
         <v>0.28</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="10" t="n">
         <v>0.187</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="10" t="n">
         <f aca="false">F18*I18*10</f>
         <v>1.87</v>
       </c>
-      <c r="K18" s="12" t="n">
+      <c r="K18" s="10" t="n">
         <v>0.187</v>
       </c>
-      <c r="L18" s="13" t="n">
+      <c r="L18" s="10" t="n">
         <f aca="false">F18*K18*50</f>
         <v>9.35</v>
       </c>
-      <c r="M18" s="12" t="n">
+      <c r="M18" s="10" t="n">
         <v>0.069</v>
       </c>
-      <c r="N18" s="13" t="n">
+      <c r="N18" s="10" t="n">
         <f aca="false">F18*M18*1000</f>
         <v>69</v>
       </c>
-      <c r="O18" s="12" t="n">
+      <c r="O18" s="10" t="n">
         <v>0.054</v>
       </c>
-      <c r="P18" s="14" t="n">
+      <c r="P18" s="11" t="n">
         <f aca="false">F18*O18*20000</f>
         <v>1080</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="7" t="n">
         <f aca="false">F19*G19</f>
         <v>0.95</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="7" t="n">
         <v>0.091</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="7" t="n">
         <f aca="false">F19*I19*10</f>
         <v>4.55</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="7" t="n">
         <v>0.053</v>
       </c>
-      <c r="L19" s="9" t="n">
+      <c r="L19" s="7" t="n">
         <f aca="false">F19*K19*50</f>
         <v>13.25</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="7" t="n">
         <v>0.043</v>
       </c>
-      <c r="N19" s="9" t="n">
+      <c r="N19" s="7" t="n">
         <f aca="false">F19*M19*1000</f>
         <v>215</v>
       </c>
-      <c r="O19" s="8" t="n">
+      <c r="O19" s="7" t="n">
         <v>0.028</v>
       </c>
-      <c r="P19" s="10" t="n">
+      <c r="P19" s="8" t="n">
         <f aca="false">F19*O19*20000</f>
         <v>2800</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>860010372004</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="11" t="n">
-        <v>860010372004</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="H20" s="13" t="n">
+      <c r="H20" s="10" t="n">
         <f aca="false">F20*G20</f>
         <v>0.54</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="10" t="n">
         <v>0.083</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="J20" s="10" t="n">
         <f aca="false">F20*I20*10</f>
         <v>4.98</v>
       </c>
-      <c r="K20" s="12" t="n">
+      <c r="K20" s="10" t="n">
         <v>0.064</v>
       </c>
-      <c r="L20" s="13" t="n">
+      <c r="L20" s="10" t="n">
         <f aca="false">F20*K20*50</f>
         <v>19.2</v>
       </c>
-      <c r="M20" s="12" t="n">
+      <c r="M20" s="10" t="n">
         <v>0.054</v>
       </c>
-      <c r="N20" s="13" t="n">
+      <c r="N20" s="10" t="n">
         <f aca="false">F20*M20*1000</f>
         <v>324</v>
       </c>
-      <c r="O20" s="12" t="n">
+      <c r="O20" s="10" t="n">
         <v>0.054</v>
       </c>
-      <c r="P20" s="14" t="n">
+      <c r="P20" s="11" t="n">
         <f aca="false">F20*O20*20000</f>
         <v>6480</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="7" t="n">
         <v>0.42</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="7" t="n">
         <f aca="false">F21*G21</f>
         <v>2.1</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="7" t="n">
         <v>0.222</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="7" t="n">
         <f aca="false">F21*I21*10</f>
         <v>11.1</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="7" t="n">
         <v>0.063</v>
       </c>
-      <c r="L21" s="9" t="n">
+      <c r="L21" s="7" t="n">
         <f aca="false">F21*K21*50</f>
         <v>15.75</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="7" t="n">
         <v>0.085</v>
       </c>
-      <c r="N21" s="9" t="n">
+      <c r="N21" s="7" t="n">
         <f aca="false">F21*M21*1000</f>
         <v>425</v>
       </c>
-      <c r="O21" s="8" t="n">
+      <c r="O21" s="7" t="n">
         <v>0.081</v>
       </c>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="8" t="n">
         <f aca="false">F21*O21*20000</f>
         <v>8100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="12" t="n">
+      <c r="F22" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G22" s="10" t="n">
         <v>0.29</v>
       </c>
-      <c r="H22" s="13" t="n">
+      <c r="H22" s="10" t="n">
         <f aca="false">F22*G22</f>
         <v>1.74</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="10" t="n">
         <v>0.195</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="J22" s="10" t="n">
         <f aca="false">F22*I22*10</f>
         <v>11.7</v>
       </c>
-      <c r="K22" s="12" t="n">
+      <c r="K22" s="10" t="n">
         <v>0.117</v>
       </c>
-      <c r="L22" s="13" t="n">
+      <c r="L22" s="10" t="n">
         <f aca="false">F22*K22*50</f>
         <v>35.1</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="10" t="n">
         <v>0.078</v>
       </c>
-      <c r="N22" s="13" t="n">
+      <c r="N22" s="10" t="n">
         <f aca="false">F22*M22*1000</f>
         <v>468</v>
       </c>
-      <c r="O22" s="12" t="n">
+      <c r="O22" s="10" t="n">
         <v>0.061</v>
       </c>
-      <c r="P22" s="14" t="n">
+      <c r="P22" s="11" t="n">
         <f aca="false">F22*O22*20000</f>
         <v>7320</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="7" t="n">
         <v>0.12</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="7" t="n">
         <f aca="false">F23*G23</f>
         <v>0.12</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="7" t="n">
         <f aca="false">F23*I23*10</f>
         <v>0.9</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="7" t="n">
         <v>0.0718</v>
       </c>
-      <c r="L23" s="9" t="n">
+      <c r="L23" s="7" t="n">
         <f aca="false">F23*K23*50</f>
         <v>3.59</v>
       </c>
-      <c r="M23" s="8" t="n">
+      <c r="M23" s="7" t="n">
         <v>0.04332</v>
       </c>
-      <c r="N23" s="9" t="n">
+      <c r="N23" s="7" t="n">
         <f aca="false">F23*M23*1000</f>
         <v>43.32</v>
       </c>
-      <c r="O23" s="8" t="n">
+      <c r="O23" s="7" t="n">
         <v>0.02824</v>
       </c>
-      <c r="P23" s="10" t="n">
+      <c r="P23" s="8" t="n">
         <f aca="false">F23*O23*20000</f>
         <v>564.8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="12" t="n">
+      <c r="G24" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="H24" s="13" t="n">
+      <c r="H24" s="10" t="n">
         <f aca="false">F24*G24</f>
         <v>0.09</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" s="10" t="n">
         <v>0.032</v>
       </c>
-      <c r="J24" s="13" t="n">
+      <c r="J24" s="10" t="n">
         <f aca="false">F24*I24*10</f>
         <v>0.32</v>
       </c>
-      <c r="K24" s="12" t="n">
+      <c r="K24" s="10" t="n">
         <v>0.0266</v>
       </c>
-      <c r="L24" s="13" t="n">
+      <c r="L24" s="10" t="n">
         <f aca="false">F24*K24*50</f>
         <v>1.33</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="10" t="n">
         <v>0.01721</v>
       </c>
-      <c r="N24" s="13" t="n">
+      <c r="N24" s="10" t="n">
         <f aca="false">F24*M24*1000</f>
         <v>17.21</v>
       </c>
-      <c r="O24" s="12" t="n">
+      <c r="O24" s="10" t="n">
         <v>0.01161</v>
       </c>
-      <c r="P24" s="14" t="n">
+      <c r="P24" s="11" t="n">
         <f aca="false">F24*O24*20000</f>
         <v>232.2</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="7" t="n">
         <f aca="false">F25*G25</f>
         <v>0.09</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="7" t="n">
         <v>0.032</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="7" t="n">
         <f aca="false">F25*I25*10</f>
         <v>0.32</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="7" t="n">
         <v>0.0208</v>
       </c>
-      <c r="L25" s="9" t="n">
+      <c r="L25" s="7" t="n">
         <f aca="false">F25*K25*50</f>
         <v>1.04</v>
       </c>
-      <c r="M25" s="8" t="n">
+      <c r="M25" s="7" t="n">
         <v>0.01046</v>
       </c>
-      <c r="N25" s="9" t="n">
+      <c r="N25" s="7" t="n">
         <f aca="false">F25*M25*1000</f>
         <v>10.46</v>
       </c>
-      <c r="O25" s="8" t="n">
+      <c r="O25" s="7" t="n">
         <v>0.00686</v>
       </c>
-      <c r="P25" s="10" t="n">
+      <c r="P25" s="8" t="n">
         <f aca="false">F25*O25*20000</f>
         <v>137.2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="H26" s="13" t="n">
+      <c r="H26" s="10" t="n">
         <f aca="false">F26*G26</f>
         <v>0.09</v>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" s="10" t="n">
         <v>0.035</v>
       </c>
-      <c r="J26" s="13" t="n">
+      <c r="J26" s="10" t="n">
         <f aca="false">F26*I26*10</f>
         <v>0.35</v>
       </c>
-      <c r="K26" s="12" t="n">
+      <c r="K26" s="10" t="n">
         <v>0.0226</v>
       </c>
-      <c r="L26" s="13" t="n">
+      <c r="L26" s="10" t="n">
         <f aca="false">F26*K26*50</f>
         <v>1.13</v>
       </c>
-      <c r="M26" s="12" t="n">
+      <c r="M26" s="10" t="n">
         <v>0.01152</v>
       </c>
-      <c r="N26" s="13" t="n">
+      <c r="N26" s="10" t="n">
         <f aca="false">F26*M26*1000</f>
         <v>11.52</v>
       </c>
-      <c r="O26" s="12" t="n">
+      <c r="O26" s="10" t="n">
         <v>0.00765</v>
       </c>
-      <c r="P26" s="14" t="n">
+      <c r="P26" s="11" t="n">
         <f aca="false">F26*O26*20000</f>
         <v>153</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="7" t="n">
         <v>0.17</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="7" t="n">
         <f aca="false">F27*G27</f>
         <v>0.34</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="7" t="n">
         <v>0.084</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="7" t="n">
         <f aca="false">F27*I27*10</f>
         <v>1.68</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="7" t="n">
         <v>0.0564</v>
       </c>
-      <c r="L27" s="9" t="n">
+      <c r="L27" s="7" t="n">
         <f aca="false">F27*K27*50</f>
         <v>5.64</v>
       </c>
-      <c r="M27" s="8" t="n">
+      <c r="M27" s="7" t="n">
         <v>0.03031</v>
       </c>
-      <c r="N27" s="9" t="n">
+      <c r="N27" s="7" t="n">
         <f aca="false">F27*M27*1000</f>
         <v>60.62</v>
       </c>
-      <c r="O27" s="8" t="n">
+      <c r="O27" s="7" t="n">
         <v>0.02099</v>
       </c>
-      <c r="P27" s="10" t="n">
+      <c r="P27" s="8" t="n">
         <f aca="false">F27*O27*20000</f>
         <v>839.6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="G28" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="H28" s="13" t="n">
+      <c r="H28" s="10" t="n">
         <f aca="false">F28*G28</f>
         <v>0.09</v>
       </c>
-      <c r="I28" s="12" t="n">
+      <c r="I28" s="10" t="n">
         <v>0.032</v>
       </c>
-      <c r="J28" s="13" t="n">
+      <c r="J28" s="10" t="n">
         <f aca="false">F28*I28*10</f>
         <v>0.32</v>
       </c>
-      <c r="K28" s="12" t="n">
+      <c r="K28" s="10" t="n">
         <v>0.0208</v>
       </c>
-      <c r="L28" s="13" t="n">
+      <c r="L28" s="10" t="n">
         <f aca="false">F28*K28*50</f>
         <v>1.04</v>
       </c>
-      <c r="M28" s="12" t="n">
+      <c r="M28" s="10" t="n">
         <v>0.01046</v>
       </c>
-      <c r="N28" s="13" t="n">
+      <c r="N28" s="10" t="n">
         <f aca="false">F28*M28*1000</f>
         <v>10.46</v>
       </c>
-      <c r="O28" s="12" t="n">
+      <c r="O28" s="10" t="n">
         <v>0.00686</v>
       </c>
-      <c r="P28" s="14" t="n">
+      <c r="P28" s="11" t="n">
         <f aca="false">F28*O28*20000</f>
         <v>137.2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="C30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="F31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
         <v>0</v>
@@ -2414,104 +2377,101 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H36" s="8" t="n">
+        <v>131</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>131</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="D37" s="10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>391.37</v>
+      </c>
+      <c r="H37" s="11" t="n">
+        <v>7640</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E37" s="12" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F37" s="12" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="G37" s="12" t="n">
-        <v>391.37</v>
-      </c>
-      <c r="H37" s="20" t="n">
-        <v>7640</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0"/>
-      <c r="C38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="7" t="n">
         <f aca="false">SUM(H3:H28) + D37</f>
         <v>131.82309</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="E38" s="7" t="n">
         <f aca="false">SUM(J3:J28) + E37</f>
         <v>1210.2309</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="7" t="n">
         <f aca="false">SUM(L3:L28) + F37 + F36</f>
         <v>5828.2245</v>
       </c>
-      <c r="G38" s="9" t="n">
+      <c r="G38" s="7" t="n">
         <f aca="false">SUM(N3:N28) + G37 + G36</f>
         <v>109481.52</v>
       </c>
-      <c r="H38" s="10" t="n">
+      <c r="H38" s="8" t="n">
         <f aca="false">SUM(P3:P28) + H37 + H36</f>
-        <v>2169235.2</v>
+        <v>2159235.2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0"/>
-      <c r="C39" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="21" t="n">
+      <c r="C39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="15" t="n">
         <f aca="false">D38</f>
         <v>131.82309</v>
       </c>
-      <c r="E39" s="21" t="n">
+      <c r="E39" s="15" t="n">
         <f aca="false">E38/10</f>
         <v>121.02309</v>
       </c>
-      <c r="F39" s="21" t="n">
+      <c r="F39" s="15" t="n">
         <f aca="false">F38/50</f>
         <v>116.56449</v>
       </c>
-      <c r="G39" s="21" t="n">
+      <c r="G39" s="15" t="n">
         <f aca="false">G38/1000</f>
         <v>109.48152</v>
       </c>
-      <c r="H39" s="22" t="n">
+      <c r="H39" s="16" t="n">
         <f aca="false">H38/20000</f>
-        <v>108.46176</v>
+        <v>107.96176</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/component_list.xlsx
+++ b/DOC/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Universitat\8e\Eines\projecte\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B90879-635A-4C09-9023-991942E88F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198B6DD-5228-431C-AFB9-26D543AC99C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>1xPCB</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>PCBs</t>
   </si>
 </sst>
 </file>
@@ -517,11 +520,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -538,6 +538,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Énfasis4" xfId="2" builtinId="42"/>
@@ -623,6 +628,2083 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Variació</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> del preu unitari</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$35:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$39:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.343090000000032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.403090000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.964489999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.881519999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.861759999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51F1-4BE5-A870-2135593C529D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="623718784"/>
+        <c:axId val="623719744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="623718784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Unitats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623719744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="623719744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Preu unitari (€/u)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623718784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Variació del preu total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$35:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$38:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.343090000000032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>724.03090000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3448.2244999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62881.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1237235.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F04-4991-A4F6-A04F76F1D1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1681181488"/>
+        <c:axId val="1780234336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1681181488"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Unitats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780234336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1780234336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Preu total (€)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681181488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292F1FEE-2749-915F-3560-CB02C8F36CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAB30D6-F1C9-872C-AA9C-22EBFE785BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,1600 +2910,1602 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>7.37</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H4" si="0">F3*G3</f>
         <v>7.37</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>7.37</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f t="shared" ref="J3:J4" si="1">F3*I3*10</f>
         <v>73.7</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>6.76</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <f t="shared" ref="L3:L4" si="2">F3*K3*50</f>
         <v>338</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>6.12</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f t="shared" ref="N3:N4" si="3">F3*M3*1000</f>
         <v>6120</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>6.12</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <f t="shared" ref="P3:P4" si="4">F3*O3*20000</f>
         <v>122400</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>5.7527999999999997</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>5.7527999999999997</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>5.7527999999999997</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="1"/>
         <v>57.527999999999999</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>5.7527999999999997</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>287.64</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>5.7527999999999997</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f t="shared" si="3"/>
         <v>5752.7999999999993</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>5.7527999999999997</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <f t="shared" si="4"/>
         <v>115056</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>2.41</v>
       </c>
-      <c r="H5" s="9">
-        <f>F5*G5</f>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H27" si="5">F5*G5</f>
         <v>2.41</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>2.17</v>
       </c>
-      <c r="J5" s="9">
-        <f>F5*I5*10</f>
+      <c r="J5" s="8">
+        <f t="shared" ref="J5:J27" si="6">F5*I5*10</f>
         <v>21.7</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>2.17</v>
       </c>
-      <c r="L5" s="9">
-        <f>F5*K5*50</f>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:L27" si="7">F5*K5*50</f>
         <v>108.5</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>1.18</v>
       </c>
-      <c r="N5" s="9">
-        <f>F5*M5*1000</f>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N27" si="8">F5*M5*1000</f>
         <v>1180</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>1.01</v>
       </c>
-      <c r="P5" s="10">
-        <f>F5*O5*20000</f>
+      <c r="P5" s="9">
+        <f t="shared" ref="P5:P27" si="9">F5*O5*20000</f>
         <v>20200</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>1.9202900000000001</v>
       </c>
-      <c r="H6" s="6">
-        <f>F6*G6</f>
+      <c r="H6" s="5">
+        <f t="shared" si="5"/>
         <v>1.9202900000000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1.9202900000000001</v>
       </c>
-      <c r="J6" s="6">
-        <f>F6*I6*10</f>
+      <c r="J6" s="5">
+        <f t="shared" si="6"/>
         <v>19.2029</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>1.9202900000000001</v>
       </c>
-      <c r="L6" s="6">
-        <f>F6*K6*50</f>
+      <c r="L6" s="5">
+        <f t="shared" si="7"/>
         <v>96.014499999999998</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>1.9202900000000001</v>
       </c>
-      <c r="N6" s="6">
-        <f>F6*M6*1000</f>
+      <c r="N6" s="5">
+        <f t="shared" si="8"/>
         <v>1920.29</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>1.9202900000000001</v>
       </c>
-      <c r="P6" s="7">
-        <f>F6*O6*20000</f>
+      <c r="P6" s="6">
+        <f t="shared" si="9"/>
         <v>38405.800000000003</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H7" s="9">
-        <f>F7*G7</f>
+      <c r="H7" s="8">
+        <f t="shared" si="5"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>2.19</v>
       </c>
-      <c r="J7" s="9">
-        <f>F7*I7*10</f>
+      <c r="J7" s="8">
+        <f t="shared" si="6"/>
         <v>21.9</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>2.08</v>
       </c>
-      <c r="L7" s="9">
-        <f>F7*K7*50</f>
+      <c r="L7" s="8">
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>1.53</v>
       </c>
-      <c r="N7" s="9">
-        <f>F7*M7*1000</f>
+      <c r="N7" s="8">
+        <f t="shared" si="8"/>
         <v>1530</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>1.34</v>
       </c>
-      <c r="P7" s="10">
-        <f>F7*O7*20000</f>
+      <c r="P7" s="9">
+        <f t="shared" si="9"/>
         <v>26800</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1.8</v>
       </c>
-      <c r="H8" s="6">
-        <f>F8*G8</f>
+      <c r="H8" s="5">
+        <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>1.61</v>
       </c>
-      <c r="J8" s="6">
-        <f>F8*I8*10</f>
+      <c r="J8" s="5">
+        <f t="shared" si="6"/>
         <v>32.200000000000003</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>1.35</v>
       </c>
-      <c r="L8" s="6">
-        <f>F8*K8*50</f>
+      <c r="L8" s="5">
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>1.04</v>
       </c>
-      <c r="N8" s="6">
-        <f>F8*M8*1000</f>
+      <c r="N8" s="5">
+        <f t="shared" si="8"/>
         <v>2080</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>1.04</v>
       </c>
-      <c r="P8" s="7">
-        <f>F8*O8*20000</f>
+      <c r="P8" s="6">
+        <f t="shared" si="9"/>
         <v>41600</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.41</v>
       </c>
-      <c r="H9" s="9">
-        <f>F9*G9</f>
+      <c r="H9" s="8">
+        <f t="shared" si="5"/>
         <v>0.41</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.27800000000000002</v>
       </c>
-      <c r="J9" s="9">
-        <f>F9*I9*10</f>
+      <c r="J9" s="8">
+        <f t="shared" si="6"/>
         <v>2.7800000000000002</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L9" s="9">
-        <f>F9*K9*50</f>
+      <c r="L9" s="8">
+        <f t="shared" si="7"/>
         <v>13.900000000000002</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>0.09</v>
       </c>
-      <c r="N9" s="9">
-        <f>F9*M9*1000</f>
+      <c r="N9" s="8">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="P9" s="10">
-        <f>F9*O9*20000</f>
+      <c r="P9" s="9">
+        <f t="shared" si="9"/>
         <v>1140</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.54</v>
       </c>
-      <c r="H10" s="6">
-        <f>F10*G10</f>
+      <c r="H10" s="5">
+        <f t="shared" si="5"/>
         <v>0.54</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.45700000000000002</v>
       </c>
-      <c r="J10" s="6">
-        <f>F10*I10*10</f>
+      <c r="J10" s="5">
+        <f t="shared" si="6"/>
         <v>4.57</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>0.45700000000000002</v>
       </c>
-      <c r="L10" s="6">
-        <f>F10*K10*50</f>
+      <c r="L10" s="5">
+        <f t="shared" si="7"/>
         <v>22.85</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>0.20100000000000001</v>
       </c>
-      <c r="N10" s="6">
-        <f>F10*M10*1000</f>
+      <c r="N10" s="5">
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>0.158</v>
       </c>
-      <c r="P10" s="7">
-        <f>F10*O10*20000</f>
+      <c r="P10" s="6">
+        <f t="shared" si="9"/>
         <v>3160</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>35.04</v>
       </c>
-      <c r="H11" s="9">
-        <f>F11*G11</f>
+      <c r="H11" s="8">
+        <f t="shared" si="5"/>
         <v>35.04</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>35.04</v>
       </c>
-      <c r="J11" s="9">
-        <f>F11*I11*10</f>
+      <c r="J11" s="8">
+        <f t="shared" si="6"/>
         <v>350.4</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>35.04</v>
       </c>
-      <c r="L11" s="9">
-        <f>F11*K11*50</f>
+      <c r="L11" s="8">
+        <f t="shared" si="7"/>
         <v>1752</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>35.04</v>
       </c>
-      <c r="N11" s="9">
-        <f>F11*M11*1000</f>
+      <c r="N11" s="8">
+        <f t="shared" si="8"/>
         <v>35040</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>35.04</v>
       </c>
-      <c r="P11" s="10">
-        <f>F11*O11*20000</f>
+      <c r="P11" s="9">
+        <f t="shared" si="9"/>
         <v>700800</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.42</v>
       </c>
-      <c r="H12" s="6">
-        <f>F12*G12</f>
+      <c r="H12" s="5">
+        <f t="shared" si="5"/>
         <v>0.84</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J12" s="6">
-        <f>F12*I12*10</f>
+      <c r="J12" s="5">
+        <f t="shared" si="6"/>
         <v>8.08</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>0.33040000000000003</v>
       </c>
-      <c r="L12" s="6">
-        <f>F12*K12*50</f>
+      <c r="L12" s="5">
+        <f t="shared" si="7"/>
         <v>33.040000000000006</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>0.25096000000000002</v>
       </c>
-      <c r="N12" s="6">
-        <f>F12*M12*1000</f>
+      <c r="N12" s="5">
+        <f t="shared" si="8"/>
         <v>501.92</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>0.20355999999999999</v>
       </c>
-      <c r="P12" s="7">
-        <f>F12*O12*20000</f>
+      <c r="P12" s="6">
+        <f t="shared" si="9"/>
         <v>8142.4</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>5.53</v>
       </c>
-      <c r="H13" s="9">
-        <f>F13*G13</f>
+      <c r="H13" s="8">
+        <f t="shared" si="5"/>
         <v>5.53</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>5.38</v>
       </c>
-      <c r="J13" s="9">
-        <f>F13*I13*10</f>
+      <c r="J13" s="8">
+        <f t="shared" si="6"/>
         <v>53.8</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>5.0599999999999996</v>
       </c>
-      <c r="L13" s="9">
-        <f>F13*K13*50</f>
+      <c r="L13" s="8">
+        <f t="shared" si="7"/>
         <v>252.99999999999997</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>4.43</v>
       </c>
-      <c r="N13" s="9">
-        <f>F13*M13*1000</f>
+      <c r="N13" s="8">
+        <f t="shared" si="8"/>
         <v>4430</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="P13" s="10">
-        <f>F13*O13*20000</f>
+      <c r="P13" s="9">
+        <f t="shared" si="9"/>
         <v>85399.999999999985</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.38</v>
       </c>
-      <c r="H14" s="6">
-        <f>F14*G14</f>
+      <c r="H14" s="5">
+        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>0.214</v>
       </c>
-      <c r="J14" s="6">
-        <f>F14*I14*10</f>
+      <c r="J14" s="5">
+        <f t="shared" si="6"/>
         <v>2.14</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>0.214</v>
       </c>
-      <c r="L14" s="6">
-        <f>F14*K14*50</f>
+      <c r="L14" s="5">
+        <f t="shared" si="7"/>
         <v>10.7</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
-        <f>F14*M14*1000</f>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="P14" s="7">
-        <f>F14*O14*20000</f>
+      <c r="P14" s="6">
+        <f t="shared" si="9"/>
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>0.42</v>
       </c>
-      <c r="H15" s="9">
-        <f>F15*G15</f>
+      <c r="H15" s="8">
+        <f t="shared" si="5"/>
         <v>0.42</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J15" s="9">
-        <f>F15*I15*10</f>
+      <c r="J15" s="8">
+        <f t="shared" si="6"/>
         <v>2.7600000000000002</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>0.27600000000000002</v>
       </c>
-      <c r="L15" s="9">
-        <f>F15*K15*50</f>
+      <c r="L15" s="8">
+        <f t="shared" si="7"/>
         <v>13.8</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>0.113</v>
       </c>
-      <c r="N15" s="9">
-        <f>F15*M15*1000</f>
+      <c r="N15" s="8">
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="P15" s="10">
-        <f>F15*O15*20000</f>
+      <c r="P15" s="9">
+        <f t="shared" si="9"/>
         <v>1780</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>3.59</v>
       </c>
-      <c r="H16" s="6">
-        <f>F16*G16</f>
+      <c r="H16" s="5">
+        <f t="shared" si="5"/>
         <v>3.59</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>3.05</v>
       </c>
-      <c r="J16" s="6">
-        <f>F16*I16*10</f>
+      <c r="J16" s="5">
+        <f t="shared" si="6"/>
         <v>30.5</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>2.76</v>
       </c>
-      <c r="L16" s="6">
-        <f>F16*K16*50</f>
+      <c r="L16" s="5">
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>1.87</v>
       </c>
-      <c r="N16" s="6">
-        <f>F16*M16*1000</f>
+      <c r="N16" s="5">
+        <f t="shared" si="8"/>
         <v>1870</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>1.83</v>
       </c>
-      <c r="P16" s="7">
-        <f>F16*O16*20000</f>
+      <c r="P16" s="6">
+        <f t="shared" si="9"/>
         <v>36600</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H17" s="9">
-        <f>F17*G17</f>
+      <c r="H17" s="8">
+        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>0.187</v>
       </c>
-      <c r="J17" s="9">
-        <f>F17*I17*10</f>
+      <c r="J17" s="8">
+        <f t="shared" si="6"/>
         <v>1.87</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>0.187</v>
       </c>
-      <c r="L17" s="9">
-        <f>F17*K17*50</f>
+      <c r="L17" s="8">
+        <f t="shared" si="7"/>
         <v>9.35</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="N17" s="9">
-        <f>F17*M17*1000</f>
+      <c r="N17" s="8">
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P17" s="10">
-        <f>F17*O17*20000</f>
+      <c r="P17" s="9">
+        <f t="shared" si="9"/>
         <v>1080</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.19</v>
       </c>
-      <c r="H18" s="6">
-        <f>F18*G18</f>
+      <c r="H18" s="5">
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="J18" s="6">
-        <f>F18*I18*10</f>
+      <c r="J18" s="5">
+        <f t="shared" si="6"/>
         <v>4.55</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L18" s="6">
-        <f>F18*K18*50</f>
+      <c r="L18" s="5">
+        <f t="shared" si="7"/>
         <v>13.25</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N18" s="6">
-        <f>F18*M18*1000</f>
+      <c r="N18" s="5">
+        <f t="shared" si="8"/>
         <v>214.99999999999997</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P18" s="7">
-        <f>F18*O18*20000</f>
+      <c r="P18" s="6">
+        <f t="shared" si="9"/>
         <v>2800.0000000000005</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>860010372004</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>6</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>0.09</v>
       </c>
-      <c r="H19" s="9">
-        <f>F19*G19</f>
+      <c r="H19" s="8">
+        <f t="shared" si="5"/>
         <v>0.54</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J19" s="9">
-        <f>F19*I19*10</f>
+      <c r="J19" s="8">
+        <f t="shared" si="6"/>
         <v>4.9800000000000004</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="L19" s="9">
-        <f>F19*K19*50</f>
+      <c r="L19" s="8">
+        <f t="shared" si="7"/>
         <v>19.2</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N19" s="9">
-        <f>F19*M19*1000</f>
+      <c r="N19" s="8">
+        <f t="shared" si="8"/>
         <v>324</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P19" s="10">
-        <f>F19*O19*20000</f>
+      <c r="P19" s="9">
+        <f t="shared" si="9"/>
         <v>6480</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>5</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.42</v>
       </c>
-      <c r="H20" s="6">
-        <f>F20*G20</f>
+      <c r="H20" s="5">
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>0.222</v>
       </c>
-      <c r="J20" s="6">
-        <f>F20*I20*10</f>
+      <c r="J20" s="5">
+        <f t="shared" si="6"/>
         <v>11.100000000000001</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>6.3E-2</v>
       </c>
-      <c r="L20" s="6">
-        <f>F20*K20*50</f>
+      <c r="L20" s="5">
+        <f t="shared" si="7"/>
         <v>15.75</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N20" s="6">
-        <f>F20*M20*1000</f>
+      <c r="N20" s="5">
+        <f t="shared" si="8"/>
         <v>425.00000000000006</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="P20" s="7">
-        <f>F20*O20*20000</f>
+      <c r="P20" s="6">
+        <f t="shared" si="9"/>
         <v>8100.0000000000009</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>6</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H21" s="9">
-        <f>F21*G21</f>
+      <c r="H21" s="8">
+        <f t="shared" si="5"/>
         <v>1.7399999999999998</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0.19500000000000001</v>
       </c>
-      <c r="J21" s="9">
-        <f>F21*I21*10</f>
+      <c r="J21" s="8">
+        <f t="shared" si="6"/>
         <v>11.7</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>0.11700000000000001</v>
       </c>
-      <c r="L21" s="9">
-        <f>F21*K21*50</f>
+      <c r="L21" s="8">
+        <f t="shared" si="7"/>
         <v>35.1</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>7.8E-2</v>
       </c>
-      <c r="N21" s="9">
-        <f>F21*M21*1000</f>
+      <c r="N21" s="8">
+        <f t="shared" si="8"/>
         <v>468</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="P21" s="10">
-        <f>F21*O21*20000</f>
+      <c r="P21" s="9">
+        <f t="shared" si="9"/>
         <v>7320</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.12</v>
       </c>
-      <c r="H22" s="6">
-        <f>F22*G22</f>
+      <c r="H22" s="5">
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>0.09</v>
       </c>
-      <c r="J22" s="6">
-        <f>F22*I22*10</f>
+      <c r="J22" s="5">
+        <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="L22" s="6">
-        <f>F22*K22*50</f>
+      <c r="L22" s="5">
+        <f t="shared" si="7"/>
         <v>3.5900000000000003</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>4.3319999999999997E-2</v>
       </c>
-      <c r="N22" s="6">
-        <f>F22*M22*1000</f>
+      <c r="N22" s="5">
+        <f t="shared" si="8"/>
         <v>43.32</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>2.8240000000000001E-2</v>
       </c>
-      <c r="P22" s="7">
-        <f>F22*O22*20000</f>
+      <c r="P22" s="6">
+        <f t="shared" si="9"/>
         <v>564.80000000000007</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>0.09</v>
       </c>
-      <c r="H23" s="9">
-        <f>F23*G23</f>
+      <c r="H23" s="8">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J23" s="9">
-        <f>F23*I23*10</f>
+      <c r="J23" s="8">
+        <f t="shared" si="6"/>
         <v>0.32</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="L23" s="9">
-        <f>F23*K23*50</f>
+      <c r="L23" s="8">
+        <f t="shared" si="7"/>
         <v>1.3299999999999998</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>1.721E-2</v>
       </c>
-      <c r="N23" s="9">
-        <f>F23*M23*1000</f>
+      <c r="N23" s="8">
+        <f t="shared" si="8"/>
         <v>17.21</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <v>1.1610000000000001E-2</v>
       </c>
-      <c r="P23" s="10">
-        <f>F23*O23*20000</f>
+      <c r="P23" s="9">
+        <f t="shared" si="9"/>
         <v>232.20000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>1</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.09</v>
       </c>
-      <c r="H24" s="6">
-        <f>F24*G24</f>
+      <c r="H24" s="5">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J24" s="6">
-        <f>F24*I24*10</f>
+      <c r="J24" s="5">
+        <f t="shared" si="6"/>
         <v>0.32</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="L24" s="6">
-        <f>F24*K24*50</f>
+      <c r="L24" s="5">
+        <f t="shared" si="7"/>
         <v>1.04</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>1.0460000000000001E-2</v>
       </c>
-      <c r="N24" s="6">
-        <f>F24*M24*1000</f>
+      <c r="N24" s="5">
+        <f t="shared" si="8"/>
         <v>10.46</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>6.8599999999999998E-3</v>
       </c>
-      <c r="P24" s="7">
-        <f>F24*O24*20000</f>
+      <c r="P24" s="6">
+        <f t="shared" si="9"/>
         <v>137.19999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>1</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>0.09</v>
       </c>
-      <c r="H25" s="9">
-        <f>F25*G25</f>
+      <c r="H25" s="8">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J25" s="9">
-        <f>F25*I25*10</f>
+      <c r="J25" s="8">
+        <f t="shared" si="6"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="L25" s="9">
-        <f>F25*K25*50</f>
+      <c r="L25" s="8">
+        <f t="shared" si="7"/>
         <v>1.1299999999999999</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>1.1520000000000001E-2</v>
       </c>
-      <c r="N25" s="9">
-        <f>F25*M25*1000</f>
+      <c r="N25" s="8">
+        <f t="shared" si="8"/>
         <v>11.520000000000001</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <v>7.6499999999999997E-3</v>
       </c>
-      <c r="P25" s="10">
-        <f>F25*O25*20000</f>
+      <c r="P25" s="9">
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>2</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.17</v>
       </c>
-      <c r="H26" s="6">
-        <f>F26*G26</f>
+      <c r="H26" s="5">
+        <f t="shared" si="5"/>
         <v>0.34</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J26" s="6">
-        <f>F26*I26*10</f>
+      <c r="J26" s="5">
+        <f t="shared" si="6"/>
         <v>1.6800000000000002</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="L26" s="6">
-        <f>F26*K26*50</f>
+      <c r="L26" s="5">
+        <f t="shared" si="7"/>
         <v>5.64</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>3.031E-2</v>
       </c>
-      <c r="N26" s="6">
-        <f>F26*M26*1000</f>
+      <c r="N26" s="5">
+        <f t="shared" si="8"/>
         <v>60.62</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>2.0990000000000002E-2</v>
       </c>
-      <c r="P26" s="7">
-        <f>F26*O26*20000</f>
+      <c r="P26" s="6">
+        <f t="shared" si="9"/>
         <v>839.6</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>1</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>0.09</v>
       </c>
-      <c r="H27" s="9">
-        <f>F27*G27</f>
+      <c r="H27" s="8">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J27" s="9">
-        <f>F27*I27*10</f>
+      <c r="J27" s="8">
+        <f t="shared" si="6"/>
         <v>0.32</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="L27" s="9">
-        <f>F27*K27*50</f>
+      <c r="L27" s="8">
+        <f t="shared" si="7"/>
         <v>1.04</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <v>1.0460000000000001E-2</v>
       </c>
-      <c r="N27" s="9">
-        <f>F27*M27*1000</f>
+      <c r="N27" s="8">
+        <f t="shared" si="8"/>
         <v>10.46</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="8">
         <v>6.8599999999999998E-3</v>
       </c>
-      <c r="P27" s="10">
-        <f>F27*O27*20000</f>
+      <c r="P27" s="9">
+        <f t="shared" si="9"/>
         <v>137.19999999999999</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P29" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="16">
         <v>2</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>26.74</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="16">
         <f>F31*G31</f>
         <v>53.48</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="16">
         <v>24.31</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="16">
         <f>F31*I31*10</f>
         <v>486.2</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="16">
         <v>23.8</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="16">
         <f>F31*K31*50</f>
         <v>2380</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="16">
         <v>23.3</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="16">
         <f>F31*M31*1000</f>
         <v>46600</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="16">
         <v>23.05</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="16">
         <f>F31*O31*20000</f>
         <v>922000</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="18">
         <v>1</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
+      <c r="E35" s="18">
+        <v>10</v>
+      </c>
+      <c r="F35" s="18">
+        <v>50</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>6.55</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>6.55</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>131</v>
       </c>
       <c r="I36" t="s">
@@ -2429,71 +4513,71 @@
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>1.87</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>4.68</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>28.81</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>391.37</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>7640</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <f>SUM(H3:H27) + D37</f>
         <v>78.343090000000032</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f>SUM(J3:J27) + E37</f>
         <v>724.03090000000009</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <f>SUM(L3:L27) + F37 + F36</f>
         <v>3448.2244999999998</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <f>SUM(N3:N27) + G37 + G36</f>
         <v>62881.52</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f>SUM(P3:P27) + H37 + H36</f>
         <v>1237235.2</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <f>D38</f>
         <v>78.343090000000032</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <f>E38/10</f>
         <v>72.403090000000006</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <f>F38/50</f>
         <v>68.964489999999998</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <f>G38/1000</f>
         <v>62.881519999999995</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <f>H38/20000</f>
         <v>61.861759999999997</v>
       </c>
@@ -2573,5 +4657,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId59"/>
 </worksheet>
 </file>